--- a/csdata/Fe/SI/Fe13+.xlsx
+++ b/csdata/Fe/SI/Fe13+.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/csdata/Fe/SI/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB4CC05-CC98-CF49-95F5-80D3151E32EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Energy (eV)</t>
   </si>
@@ -30,35 +52,51 @@
   <si>
     <t>Hahn M, et al. ApJ, 767(1):47, 2013</t>
   </si>
+  <si>
+    <t>Unc at peak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -67,58 +105,56 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -308,20 +344,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z524"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -337,22 +378,29 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="B2" s="4">
-        <v>1.77E-20</v>
+        <v>1.7700000000000001E-20</v>
       </c>
       <c r="C2" s="5">
-        <v>1.14E-20</v>
+        <v>1.1399999999999999E-20</v>
       </c>
       <c r="D2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="F2">
+        <f>_xlfn.XLOOKUP(MAX(B:B),B:B,C:C)/MAX(B:B)</f>
+        <v>0.16011904761904761</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -373,15 +421,15 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>320.0</v>
+        <v>320</v>
       </c>
       <c r="B3" s="4">
         <v>2.12E-20</v>
       </c>
       <c r="C3" s="5">
-        <v>1.09E-20</v>
+        <v>1.0900000000000001E-20</v>
       </c>
       <c r="D3" s="5"/>
       <c r="G3" s="2"/>
@@ -405,15 +453,15 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="B4" s="4">
-        <v>3.81E-21</v>
+        <v>3.8099999999999996E-21</v>
       </c>
       <c r="C4" s="5">
-        <v>1.09E-20</v>
+        <v>1.0900000000000001E-20</v>
       </c>
       <c r="D4" s="5"/>
       <c r="G4" s="2"/>
@@ -437,9 +485,9 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="B5" s="4">
         <v>-1.22E-20</v>
@@ -469,9 +517,9 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="B6" s="4">
         <v>-2.71E-21</v>
@@ -501,12 +549,12 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="B7" s="4">
-        <v>4.67E-21</v>
+        <v>4.6699999999999999E-21</v>
       </c>
       <c r="C7" s="5">
         <v>1.08E-20</v>
@@ -533,15 +581,15 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>345.0</v>
+        <v>345</v>
       </c>
       <c r="B8" s="4">
-        <v>1.42E-20</v>
+        <v>1.4199999999999999E-20</v>
       </c>
       <c r="C8" s="5">
-        <v>1.18E-20</v>
+        <v>1.1800000000000001E-20</v>
       </c>
       <c r="D8" s="5"/>
       <c r="G8" s="2"/>
@@ -565,12 +613,12 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="B9" s="4">
-        <v>5.85E-21</v>
+        <v>5.8500000000000001E-21</v>
       </c>
       <c r="C9" s="5">
         <v>1.15E-20</v>
@@ -597,9 +645,9 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="B10" s="4">
         <v>7.37E-21</v>
@@ -629,12 +677,12 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="B11" s="4">
-        <v>-9.5E-21</v>
+        <v>-9.4999999999999994E-21</v>
       </c>
       <c r="C11" s="5">
         <v>1.17E-20</v>
@@ -661,12 +709,12 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="B12" s="4">
-        <v>-1.48E-20</v>
+        <v>-1.4800000000000001E-20</v>
       </c>
       <c r="C12" s="5">
         <v>1.21E-20</v>
@@ -693,15 +741,15 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>370.0</v>
+        <v>370</v>
       </c>
       <c r="B13" s="4">
-        <v>-5.2E-21</v>
+        <v>-5.2000000000000003E-21</v>
       </c>
       <c r="C13" s="5">
-        <v>1.19E-20</v>
+        <v>1.1899999999999999E-20</v>
       </c>
       <c r="D13" s="5"/>
       <c r="G13" s="2"/>
@@ -725,12 +773,12 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>375.0</v>
+        <v>375</v>
       </c>
       <c r="B14" s="4">
-        <v>-4.23E-21</v>
+        <v>-4.2299999999999999E-21</v>
       </c>
       <c r="C14" s="5">
         <v>1.16E-20</v>
@@ -757,9 +805,9 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="B15" s="4">
         <v>-1.02E-20</v>
@@ -789,15 +837,15 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>385.0</v>
+        <v>385</v>
       </c>
       <c r="B16" s="4">
-        <v>-8.33E-21</v>
+        <v>-8.3300000000000006E-21</v>
       </c>
       <c r="C16" s="5">
-        <v>6.98E-21</v>
+        <v>6.9799999999999994E-21</v>
       </c>
       <c r="D16" s="5"/>
       <c r="G16" s="2"/>
@@ -821,15 +869,15 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>390.0</v>
+        <v>390</v>
       </c>
       <c r="B17" s="4">
         <v>-2.05E-21</v>
       </c>
       <c r="C17" s="5">
-        <v>7.0E-21</v>
+        <v>7.0000000000000007E-21</v>
       </c>
       <c r="D17" s="5"/>
       <c r="G17" s="2"/>
@@ -853,15 +901,15 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>395.0</v>
+        <v>395</v>
       </c>
       <c r="B18" s="4">
-        <v>1.38E-20</v>
+        <v>1.3800000000000001E-20</v>
       </c>
       <c r="C18" s="5">
-        <v>7.43E-21</v>
+        <v>7.4299999999999993E-21</v>
       </c>
       <c r="D18" s="5"/>
       <c r="G18" s="2"/>
@@ -885,15 +933,15 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="B19" s="4">
         <v>1.75E-20</v>
       </c>
       <c r="C19" s="5">
-        <v>6.13E-21</v>
+        <v>6.1299999999999998E-21</v>
       </c>
       <c r="D19" s="5"/>
       <c r="G19" s="2"/>
@@ -917,15 +965,15 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
-        <v>405.0</v>
+        <v>405</v>
       </c>
       <c r="B20" s="4">
-        <v>3.04E-20</v>
+        <v>3.0399999999999998E-20</v>
       </c>
       <c r="C20" s="5">
-        <v>7.43E-21</v>
+        <v>7.4299999999999993E-21</v>
       </c>
       <c r="D20" s="5"/>
       <c r="G20" s="2"/>
@@ -949,12 +997,12 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>410.0</v>
+        <v>410</v>
       </c>
       <c r="B21" s="4">
-        <v>3.23E-20</v>
+        <v>3.2300000000000001E-20</v>
       </c>
       <c r="C21" s="5">
         <v>7.75E-21</v>
@@ -981,12 +1029,12 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>415.0</v>
+        <v>415</v>
       </c>
       <c r="B22" s="4">
-        <v>4.81E-20</v>
+        <v>4.8100000000000002E-20</v>
       </c>
       <c r="C22" s="5">
         <v>9.7E-21</v>
@@ -1013,12 +1061,12 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>420.0</v>
+        <v>420</v>
       </c>
       <c r="B23" s="4">
-        <v>5.02E-20</v>
+        <v>5.0199999999999999E-20</v>
       </c>
       <c r="C23" s="5">
         <v>1.01E-20</v>
@@ -1045,15 +1093,15 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>425.0</v>
+        <v>425</v>
       </c>
       <c r="B24" s="4">
-        <v>5.98E-20</v>
+        <v>5.9799999999999999E-20</v>
       </c>
       <c r="C24" s="5">
-        <v>1.14E-20</v>
+        <v>1.1399999999999999E-20</v>
       </c>
       <c r="D24" s="5"/>
       <c r="G24" s="2"/>
@@ -1077,15 +1125,15 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
-        <v>430.0</v>
+        <v>430</v>
       </c>
       <c r="B25" s="4">
-        <v>7.43E-20</v>
+        <v>7.4299999999999999E-20</v>
       </c>
       <c r="C25" s="5">
-        <v>1.34E-20</v>
+        <v>1.3399999999999999E-20</v>
       </c>
       <c r="D25" s="5"/>
       <c r="G25" s="2"/>
@@ -1109,12 +1157,12 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
-        <v>435.0</v>
+        <v>435</v>
       </c>
       <c r="B26" s="4">
-        <v>7.31E-20</v>
+        <v>7.3099999999999995E-20</v>
       </c>
       <c r="C26" s="5">
         <v>1.32E-20</v>
@@ -1141,12 +1189,12 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="B27" s="4">
-        <v>7.55E-20</v>
+        <v>7.5500000000000003E-20</v>
       </c>
       <c r="C27" s="5">
         <v>1.36E-20</v>
@@ -1173,15 +1221,15 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
-        <v>445.0</v>
+        <v>445</v>
       </c>
       <c r="B28" s="4">
-        <v>9.03E-20</v>
+        <v>9.0300000000000001E-20</v>
       </c>
       <c r="C28" s="5">
-        <v>1.58E-20</v>
+        <v>1.5800000000000001E-20</v>
       </c>
       <c r="D28" s="5"/>
       <c r="G28" s="2"/>
@@ -1205,15 +1253,15 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="B29" s="4">
-        <v>8.5E-20</v>
+        <v>8.5000000000000005E-20</v>
       </c>
       <c r="C29" s="5">
-        <v>1.51E-20</v>
+        <v>1.5099999999999999E-20</v>
       </c>
       <c r="D29" s="5"/>
       <c r="G29" s="2"/>
@@ -1237,15 +1285,15 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
-        <v>455.0</v>
+        <v>455</v>
       </c>
       <c r="B30" s="4">
-        <v>9.56E-20</v>
+        <v>9.5599999999999996E-20</v>
       </c>
       <c r="C30" s="5">
-        <v>1.67E-20</v>
+        <v>1.6700000000000001E-20</v>
       </c>
       <c r="D30" s="5"/>
       <c r="G30" s="2"/>
@@ -1269,12 +1317,12 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="B31" s="4">
-        <v>9.65E-20</v>
+        <v>9.6500000000000002E-20</v>
       </c>
       <c r="C31" s="5">
         <v>1.65E-20</v>
@@ -1301,15 +1349,15 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
-        <v>465.0</v>
+        <v>465</v>
       </c>
       <c r="B32" s="4">
-        <v>9.99E-20</v>
+        <v>9.9899999999999994E-20</v>
       </c>
       <c r="C32" s="5">
-        <v>1.71E-20</v>
+        <v>1.7099999999999999E-20</v>
       </c>
       <c r="D32" s="5"/>
       <c r="G32" s="2"/>
@@ -1333,15 +1381,15 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="B33" s="4">
-        <v>9.96E-20</v>
+        <v>9.9599999999999996E-20</v>
       </c>
       <c r="C33" s="5">
-        <v>1.71E-20</v>
+        <v>1.7099999999999999E-20</v>
       </c>
       <c r="D33" s="5"/>
       <c r="G33" s="2"/>
@@ -1365,12 +1413,12 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
-        <v>475.0</v>
+        <v>475</v>
       </c>
       <c r="B34" s="4">
-        <v>1.15E-19</v>
+        <v>1.1499999999999999E-19</v>
       </c>
       <c r="C34" s="5">
         <v>1.94E-20</v>
@@ -1397,15 +1445,15 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="B35" s="4">
-        <v>1.23E-19</v>
+        <v>1.2299999999999999E-19</v>
       </c>
       <c r="C35" s="5">
-        <v>2.0E-20</v>
+        <v>1.9999999999999999E-20</v>
       </c>
       <c r="D35" s="5"/>
       <c r="G35" s="2"/>
@@ -1429,15 +1477,15 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
-        <v>485.0</v>
+        <v>485</v>
       </c>
       <c r="B36" s="4">
         <v>1.24E-19</v>
       </c>
       <c r="C36" s="5">
-        <v>2.01E-20</v>
+        <v>2.0099999999999999E-20</v>
       </c>
       <c r="D36" s="5"/>
       <c r="G36" s="2"/>
@@ -1461,12 +1509,12 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="B37" s="4">
-        <v>1.31E-19</v>
+        <v>1.3099999999999999E-19</v>
       </c>
       <c r="C37" s="5">
         <v>2.12E-20</v>
@@ -1493,12 +1541,12 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
-        <v>495.0</v>
+        <v>495</v>
       </c>
       <c r="B38" s="4">
-        <v>1.25E-19</v>
+        <v>1.2500000000000001E-19</v>
       </c>
       <c r="C38" s="5">
         <v>2.03E-20</v>
@@ -1525,12 +1573,12 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="B39" s="4">
-        <v>1.25E-19</v>
+        <v>1.2500000000000001E-19</v>
       </c>
       <c r="C39" s="5">
         <v>2.04E-20</v>
@@ -1557,15 +1605,15 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
-        <v>505.0</v>
+        <v>505</v>
       </c>
       <c r="B40" s="4">
-        <v>1.33E-19</v>
+        <v>1.3300000000000001E-19</v>
       </c>
       <c r="C40" s="5">
-        <v>2.17E-20</v>
+        <v>2.1700000000000001E-20</v>
       </c>
       <c r="D40" s="5"/>
       <c r="G40" s="2"/>
@@ -1589,15 +1637,15 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
-        <v>510.0</v>
+        <v>510</v>
       </c>
       <c r="B41" s="4">
-        <v>1.34E-19</v>
+        <v>1.3399999999999999E-19</v>
       </c>
       <c r="C41" s="5">
-        <v>2.17E-20</v>
+        <v>2.1700000000000001E-20</v>
       </c>
       <c r="D41" s="5"/>
       <c r="G41" s="2"/>
@@ -1621,15 +1669,15 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
-        <v>515.0</v>
+        <v>515</v>
       </c>
       <c r="B42" s="4">
-        <v>1.39E-19</v>
+        <v>1.3899999999999999E-19</v>
       </c>
       <c r="C42" s="5">
-        <v>2.25E-20</v>
+        <v>2.2500000000000001E-20</v>
       </c>
       <c r="D42" s="5"/>
       <c r="G42" s="2"/>
@@ -1653,15 +1701,15 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="B43" s="4">
         <v>1.42E-19</v>
       </c>
       <c r="C43" s="5">
-        <v>2.3E-20</v>
+        <v>2.2999999999999999E-20</v>
       </c>
       <c r="D43" s="5"/>
       <c r="G43" s="2"/>
@@ -1685,9 +1733,9 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
-        <v>525.0</v>
+        <v>525</v>
       </c>
       <c r="B44" s="4">
         <v>1.43E-19</v>
@@ -1717,15 +1765,15 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
-        <v>530.0</v>
+        <v>530</v>
       </c>
       <c r="B45" s="4">
-        <v>1.52E-19</v>
+        <v>1.5199999999999999E-19</v>
       </c>
       <c r="C45" s="5">
-        <v>2.45E-20</v>
+        <v>2.4500000000000001E-20</v>
       </c>
       <c r="D45" s="5"/>
       <c r="G45" s="2"/>
@@ -1749,9 +1797,9 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
-        <v>535.0</v>
+        <v>535</v>
       </c>
       <c r="B46" s="4">
         <v>1.5E-19</v>
@@ -1781,15 +1829,15 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
-        <v>540.0</v>
+        <v>540</v>
       </c>
       <c r="B47" s="4">
-        <v>1.55E-19</v>
+        <v>1.5499999999999999E-19</v>
       </c>
       <c r="C47" s="5">
-        <v>2.5E-20</v>
+        <v>2.4999999999999999E-20</v>
       </c>
       <c r="D47" s="5"/>
       <c r="G47" s="2"/>
@@ -1813,15 +1861,15 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
-        <v>545.0</v>
+        <v>545</v>
       </c>
       <c r="B48" s="4">
         <v>1.64E-19</v>
       </c>
       <c r="C48" s="5">
-        <v>2.67E-20</v>
+        <v>2.6699999999999999E-20</v>
       </c>
       <c r="D48" s="5"/>
       <c r="G48" s="2"/>
@@ -1845,15 +1893,15 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
-        <v>550.0</v>
+        <v>550</v>
       </c>
       <c r="B49" s="4">
-        <v>1.6E-19</v>
+        <v>1.5999999999999999E-19</v>
       </c>
       <c r="C49" s="5">
-        <v>2.6E-20</v>
+        <v>2.5999999999999999E-20</v>
       </c>
       <c r="D49" s="5"/>
       <c r="G49" s="2"/>
@@ -1877,12 +1925,12 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="B50" s="4">
-        <v>1.68E-19</v>
+        <v>1.6799999999999999E-19</v>
       </c>
       <c r="C50" s="5">
         <v>2.71E-20</v>
@@ -1909,15 +1957,15 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="B51" s="4">
-        <v>1.7E-19</v>
+        <v>1.7000000000000001E-19</v>
       </c>
       <c r="C51" s="5">
-        <v>2.75E-20</v>
+        <v>2.7499999999999998E-20</v>
       </c>
       <c r="D51" s="5"/>
       <c r="G51" s="2"/>
@@ -1941,15 +1989,15 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
-        <v>565.0</v>
+        <v>565</v>
       </c>
       <c r="B52" s="4">
         <v>1.72E-19</v>
       </c>
       <c r="C52" s="5">
-        <v>2.77E-20</v>
+        <v>2.7699999999999999E-20</v>
       </c>
       <c r="D52" s="5"/>
       <c r="G52" s="2"/>
@@ -1973,15 +2021,15 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
-        <v>570.0</v>
+        <v>570</v>
       </c>
       <c r="B53" s="4">
         <v>1.64E-19</v>
       </c>
       <c r="C53" s="5">
-        <v>2.65E-20</v>
+        <v>2.6500000000000001E-20</v>
       </c>
       <c r="D53" s="5"/>
       <c r="G53" s="2"/>
@@ -2005,9 +2053,9 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
-        <v>575.0</v>
+        <v>575</v>
       </c>
       <c r="B54" s="4">
         <v>1.69E-19</v>
@@ -2037,15 +2085,15 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
-        <v>580.0</v>
+        <v>580</v>
       </c>
       <c r="B55" s="4">
-        <v>1.76E-19</v>
+        <v>1.7599999999999999E-19</v>
       </c>
       <c r="C55" s="5">
-        <v>2.84E-20</v>
+        <v>2.8399999999999998E-20</v>
       </c>
       <c r="D55" s="5"/>
       <c r="G55" s="2"/>
@@ -2069,15 +2117,15 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
-        <v>585.0</v>
+        <v>585</v>
       </c>
       <c r="B56" s="4">
-        <v>1.78E-19</v>
+        <v>1.7800000000000001E-19</v>
       </c>
       <c r="C56" s="5">
-        <v>2.86E-20</v>
+        <v>2.8599999999999999E-20</v>
       </c>
       <c r="D56" s="5"/>
       <c r="G56" s="2"/>
@@ -2101,15 +2149,15 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
-        <v>590.0</v>
+        <v>590</v>
       </c>
       <c r="B57" s="4">
         <v>1.79E-19</v>
       </c>
       <c r="C57" s="5">
-        <v>2.88E-20</v>
+        <v>2.8799999999999999E-20</v>
       </c>
       <c r="D57" s="5"/>
       <c r="G57" s="2"/>
@@ -2133,15 +2181,15 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
-        <v>595.0</v>
+        <v>595</v>
       </c>
       <c r="B58" s="4">
         <v>1.82E-19</v>
       </c>
       <c r="C58" s="5">
-        <v>2.93E-20</v>
+        <v>2.9299999999999998E-20</v>
       </c>
       <c r="D58" s="5"/>
       <c r="G58" s="2"/>
@@ -2165,15 +2213,15 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="B59" s="4">
         <v>1.82E-19</v>
       </c>
       <c r="C59" s="5">
-        <v>2.93E-20</v>
+        <v>2.9299999999999998E-20</v>
       </c>
       <c r="D59" s="5"/>
       <c r="G59" s="2"/>
@@ -2197,15 +2245,15 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
-        <v>605.0</v>
+        <v>605</v>
       </c>
       <c r="B60" s="4">
-        <v>1.92E-19</v>
+        <v>1.9199999999999999E-19</v>
       </c>
       <c r="C60" s="5">
-        <v>3.09E-20</v>
+        <v>3.0900000000000003E-20</v>
       </c>
       <c r="D60" s="5"/>
       <c r="G60" s="2"/>
@@ -2229,15 +2277,15 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
-        <v>610.0</v>
+        <v>610</v>
       </c>
       <c r="B61" s="4">
         <v>1.9E-19</v>
       </c>
       <c r="C61" s="5">
-        <v>3.06E-20</v>
+        <v>3.0599999999999999E-20</v>
       </c>
       <c r="D61" s="5"/>
       <c r="G61" s="2"/>
@@ -2261,15 +2309,15 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
-        <v>615.0</v>
+        <v>615</v>
       </c>
       <c r="B62" s="4">
         <v>1.93E-19</v>
       </c>
       <c r="C62" s="5">
-        <v>3.11E-20</v>
+        <v>3.1099999999999997E-20</v>
       </c>
       <c r="D62" s="5"/>
       <c r="G62" s="2"/>
@@ -2293,9 +2341,9 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
-        <v>620.0</v>
+        <v>620</v>
       </c>
       <c r="B63" s="4">
         <v>1.98E-19</v>
@@ -2325,9 +2373,9 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
-        <v>625.0</v>
+        <v>625</v>
       </c>
       <c r="B64" s="4">
         <v>1.98E-19</v>
@@ -2357,12 +2405,12 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="B65" s="4">
-        <v>1.99E-19</v>
+        <v>1.9900000000000001E-19</v>
       </c>
       <c r="C65" s="5">
         <v>3.21E-20</v>
@@ -2389,15 +2437,15 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
-        <v>635.0</v>
+        <v>635</v>
       </c>
       <c r="B66" s="4">
         <v>1.95E-19</v>
       </c>
       <c r="C66" s="5">
-        <v>3.13E-20</v>
+        <v>3.1299999999999998E-20</v>
       </c>
       <c r="D66" s="5"/>
       <c r="G66" s="2"/>
@@ -2421,15 +2469,15 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
-        <v>640.0</v>
+        <v>640</v>
       </c>
       <c r="B67" s="4">
         <v>1.93E-19</v>
       </c>
       <c r="C67" s="5">
-        <v>3.11E-20</v>
+        <v>3.1099999999999997E-20</v>
       </c>
       <c r="D67" s="5"/>
       <c r="G67" s="2"/>
@@ -2453,15 +2501,15 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
-        <v>645.0</v>
+        <v>645</v>
       </c>
       <c r="B68" s="4">
-        <v>1.94E-19</v>
+        <v>1.9399999999999999E-19</v>
       </c>
       <c r="C68" s="5">
-        <v>3.13E-20</v>
+        <v>3.1299999999999998E-20</v>
       </c>
       <c r="D68" s="5"/>
       <c r="G68" s="2"/>
@@ -2485,15 +2533,15 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
-        <v>650.0</v>
+        <v>650</v>
       </c>
       <c r="B69" s="4">
-        <v>2.0E-19</v>
+        <v>2E-19</v>
       </c>
       <c r="C69" s="5">
-        <v>3.22E-20</v>
+        <v>3.2199999999999998E-20</v>
       </c>
       <c r="D69" s="5"/>
       <c r="G69" s="2"/>
@@ -2517,15 +2565,15 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
-        <v>655.0</v>
+        <v>655</v>
       </c>
       <c r="B70" s="4">
         <v>1.95E-19</v>
       </c>
       <c r="C70" s="5">
-        <v>3.14E-20</v>
+        <v>3.1400000000000001E-20</v>
       </c>
       <c r="D70" s="5"/>
       <c r="G70" s="2"/>
@@ -2549,15 +2597,15 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
-        <v>660.0</v>
+        <v>660</v>
       </c>
       <c r="B71" s="4">
         <v>1.98E-19</v>
       </c>
       <c r="C71" s="5">
-        <v>3.17E-20</v>
+        <v>3.1699999999999999E-20</v>
       </c>
       <c r="D71" s="5"/>
       <c r="G71" s="2"/>
@@ -2581,15 +2629,15 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
-        <v>665.0</v>
+        <v>665</v>
       </c>
       <c r="B72" s="4">
-        <v>2.0E-19</v>
+        <v>2E-19</v>
       </c>
       <c r="C72" s="5">
-        <v>3.22E-20</v>
+        <v>3.2199999999999998E-20</v>
       </c>
       <c r="D72" s="5"/>
       <c r="G72" s="2"/>
@@ -2613,15 +2661,15 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
-        <v>670.0</v>
+        <v>670</v>
       </c>
       <c r="B73" s="4">
-        <v>2.02E-19</v>
+        <v>2.0199999999999999E-19</v>
       </c>
       <c r="C73" s="5">
-        <v>3.24E-20</v>
+        <v>3.2399999999999998E-20</v>
       </c>
       <c r="D73" s="5"/>
       <c r="G73" s="2"/>
@@ -2645,15 +2693,15 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
-        <v>675.0</v>
+        <v>675</v>
       </c>
       <c r="B74" s="4">
         <v>2.03E-19</v>
       </c>
       <c r="C74" s="5">
-        <v>3.25E-20</v>
+        <v>3.2500000000000002E-20</v>
       </c>
       <c r="D74" s="5"/>
       <c r="G74" s="2"/>
@@ -2677,15 +2725,15 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
-        <v>680.0</v>
+        <v>680</v>
       </c>
       <c r="B75" s="4">
         <v>2.03E-19</v>
       </c>
       <c r="C75" s="5">
-        <v>3.25E-20</v>
+        <v>3.2500000000000002E-20</v>
       </c>
       <c r="D75" s="5"/>
       <c r="G75" s="2"/>
@@ -2709,15 +2757,15 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
-        <v>685.0</v>
+        <v>685</v>
       </c>
       <c r="B76" s="4">
-        <v>2.04E-19</v>
+        <v>2.0400000000000001E-19</v>
       </c>
       <c r="C76" s="5">
-        <v>3.27E-20</v>
+        <v>3.2700000000000002E-20</v>
       </c>
       <c r="D76" s="5"/>
       <c r="G76" s="2"/>
@@ -2741,15 +2789,15 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
-        <v>690.0</v>
+        <v>690</v>
       </c>
       <c r="B77" s="4">
-        <v>2.12E-19</v>
+        <v>2.1200000000000001E-19</v>
       </c>
       <c r="C77" s="5">
-        <v>3.4E-20</v>
+        <v>3.3999999999999997E-20</v>
       </c>
       <c r="D77" s="5"/>
       <c r="G77" s="2"/>
@@ -2773,15 +2821,15 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
-        <v>695.0</v>
+        <v>695</v>
       </c>
       <c r="B78" s="4">
         <v>2.16E-19</v>
       </c>
       <c r="C78" s="5">
-        <v>3.47E-20</v>
+        <v>3.4700000000000002E-20</v>
       </c>
       <c r="D78" s="5"/>
       <c r="G78" s="2"/>
@@ -2805,15 +2853,15 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
-        <v>700.0</v>
+        <v>700</v>
       </c>
       <c r="B79" s="4">
-        <v>2.2E-19</v>
+        <v>2.1999999999999998E-19</v>
       </c>
       <c r="C79" s="5">
-        <v>3.52E-20</v>
+        <v>3.5200000000000001E-20</v>
       </c>
       <c r="D79" s="5"/>
       <c r="G79" s="2"/>
@@ -2837,15 +2885,15 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
-        <v>705.0</v>
+        <v>705</v>
       </c>
       <c r="B80" s="4">
         <v>2.19E-19</v>
       </c>
       <c r="C80" s="5">
-        <v>3.51E-20</v>
+        <v>3.5099999999999998E-20</v>
       </c>
       <c r="D80" s="5"/>
       <c r="G80" s="2"/>
@@ -2869,15 +2917,15 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
-        <v>710.0</v>
+        <v>710</v>
       </c>
       <c r="B81" s="4">
-        <v>2.28E-19</v>
+        <v>2.2800000000000001E-19</v>
       </c>
       <c r="C81" s="5">
-        <v>3.66E-20</v>
+        <v>3.6599999999999999E-20</v>
       </c>
       <c r="D81" s="5"/>
       <c r="G81" s="2"/>
@@ -2901,15 +2949,15 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
-        <v>715.0</v>
+        <v>715</v>
       </c>
       <c r="B82" s="4">
-        <v>2.43E-19</v>
+        <v>2.4299999999999998E-19</v>
       </c>
       <c r="C82" s="5">
-        <v>3.89E-20</v>
+        <v>3.8899999999999997E-20</v>
       </c>
       <c r="D82" s="5"/>
       <c r="G82" s="2"/>
@@ -2933,15 +2981,15 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
-        <v>720.0</v>
+        <v>720</v>
       </c>
       <c r="B83" s="4">
-        <v>2.59E-19</v>
+        <v>2.5899999999999998E-19</v>
       </c>
       <c r="C83" s="5">
-        <v>4.16E-20</v>
+        <v>4.1600000000000003E-20</v>
       </c>
       <c r="D83" s="5"/>
       <c r="G83" s="2"/>
@@ -2965,15 +3013,15 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
-        <v>725.0</v>
+        <v>725</v>
       </c>
       <c r="B84" s="4">
-        <v>2.69E-19</v>
+        <v>2.6900000000000002E-19</v>
       </c>
       <c r="C84" s="5">
-        <v>4.31E-20</v>
+        <v>4.3099999999999998E-20</v>
       </c>
       <c r="D84" s="5"/>
       <c r="G84" s="2"/>
@@ -2997,12 +3045,12 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
-        <v>730.0</v>
+        <v>730</v>
       </c>
       <c r="B85" s="4">
-        <v>2.85E-19</v>
+        <v>2.8499999999999998E-19</v>
       </c>
       <c r="C85" s="5">
         <v>4.57E-20</v>
@@ -3029,15 +3077,15 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
-        <v>735.0</v>
+        <v>735</v>
       </c>
       <c r="B86" s="4">
-        <v>2.95E-19</v>
+        <v>2.9500000000000002E-19</v>
       </c>
       <c r="C86" s="5">
-        <v>4.72E-20</v>
+        <v>4.7200000000000002E-20</v>
       </c>
       <c r="D86" s="5"/>
       <c r="G86" s="2"/>
@@ -3061,15 +3109,15 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
-        <v>740.0</v>
+        <v>740</v>
       </c>
       <c r="B87" s="4">
-        <v>3.11E-19</v>
+        <v>3.1100000000000002E-19</v>
       </c>
       <c r="C87" s="5">
-        <v>4.98E-20</v>
+        <v>4.9799999999999998E-20</v>
       </c>
       <c r="D87" s="5"/>
       <c r="G87" s="2"/>
@@ -3093,15 +3141,15 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
-        <v>745.0</v>
+        <v>745</v>
       </c>
       <c r="B88" s="4">
-        <v>3.57E-19</v>
+        <v>3.5700000000000001E-19</v>
       </c>
       <c r="C88" s="5">
-        <v>5.71E-20</v>
+        <v>5.7100000000000006E-20</v>
       </c>
       <c r="D88" s="5"/>
       <c r="G88" s="2"/>
@@ -3125,15 +3173,15 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
-        <v>750.0</v>
+        <v>750</v>
       </c>
       <c r="B89" s="4">
-        <v>3.56E-19</v>
+        <v>3.5600000000000002E-19</v>
       </c>
       <c r="C89" s="5">
-        <v>5.7E-20</v>
+        <v>5.7000000000000002E-20</v>
       </c>
       <c r="D89" s="5"/>
       <c r="G89" s="2"/>
@@ -3157,15 +3205,15 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
-        <v>755.0</v>
+        <v>755</v>
       </c>
       <c r="B90" s="4">
-        <v>3.86E-19</v>
+        <v>3.8600000000000001E-19</v>
       </c>
       <c r="C90" s="5">
-        <v>6.18E-20</v>
+        <v>6.1800000000000005E-20</v>
       </c>
       <c r="D90" s="5"/>
       <c r="G90" s="2"/>
@@ -3189,9 +3237,9 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
-        <v>760.0</v>
+        <v>760</v>
       </c>
       <c r="B91" s="4">
         <v>3.8E-19</v>
@@ -3221,15 +3269,15 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
-        <v>765.0</v>
+        <v>765</v>
       </c>
       <c r="B92" s="4">
-        <v>4.05E-19</v>
+        <v>4.0500000000000001E-19</v>
       </c>
       <c r="C92" s="5">
-        <v>6.47E-20</v>
+        <v>6.4700000000000005E-20</v>
       </c>
       <c r="D92" s="5"/>
       <c r="G92" s="2"/>
@@ -3253,12 +3301,12 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
-        <v>770.0</v>
+        <v>770</v>
       </c>
       <c r="B93" s="4">
-        <v>4.05E-19</v>
+        <v>4.0500000000000001E-19</v>
       </c>
       <c r="C93" s="5">
         <v>6.49E-20</v>
@@ -3285,15 +3333,15 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
-        <v>775.0</v>
+        <v>775</v>
       </c>
       <c r="B94" s="4">
-        <v>4.33E-19</v>
+        <v>4.3299999999999998E-19</v>
       </c>
       <c r="C94" s="5">
-        <v>6.92E-20</v>
+        <v>6.9199999999999998E-20</v>
       </c>
       <c r="D94" s="5"/>
       <c r="G94" s="2"/>
@@ -3317,15 +3365,15 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
-        <v>780.0</v>
+        <v>780</v>
       </c>
       <c r="B95" s="4">
-        <v>4.08E-19</v>
+        <v>4.0800000000000001E-19</v>
       </c>
       <c r="C95" s="5">
-        <v>6.52E-20</v>
+        <v>6.5199999999999998E-20</v>
       </c>
       <c r="D95" s="5"/>
       <c r="G95" s="2"/>
@@ -3349,15 +3397,15 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
-        <v>785.0</v>
+        <v>785</v>
       </c>
       <c r="B96" s="4">
-        <v>4.24E-19</v>
+        <v>4.2400000000000002E-19</v>
       </c>
       <c r="C96" s="5">
-        <v>6.79E-20</v>
+        <v>6.7900000000000003E-20</v>
       </c>
       <c r="D96" s="5"/>
       <c r="G96" s="2"/>
@@ -3381,15 +3429,15 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
-        <v>790.0</v>
+        <v>790</v>
       </c>
       <c r="B97" s="4">
-        <v>4.16E-19</v>
+        <v>4.1599999999999999E-19</v>
       </c>
       <c r="C97" s="5">
-        <v>6.66E-20</v>
+        <v>6.6599999999999996E-20</v>
       </c>
       <c r="D97" s="5"/>
       <c r="G97" s="2"/>
@@ -3413,15 +3461,15 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
-        <v>795.0</v>
+        <v>795</v>
       </c>
       <c r="B98" s="4">
-        <v>4.23E-19</v>
+        <v>4.2299999999999998E-19</v>
       </c>
       <c r="C98" s="5">
-        <v>6.77E-20</v>
+        <v>6.7699999999999997E-20</v>
       </c>
       <c r="D98" s="5"/>
       <c r="G98" s="2"/>
@@ -3445,15 +3493,15 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
-        <v>800.0</v>
+        <v>800</v>
       </c>
       <c r="B99" s="4">
-        <v>4.27E-19</v>
+        <v>4.2700000000000002E-19</v>
       </c>
       <c r="C99" s="5">
-        <v>6.85E-20</v>
+        <v>6.8499999999999999E-20</v>
       </c>
       <c r="D99" s="5"/>
       <c r="G99" s="2"/>
@@ -3477,15 +3525,15 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
-        <v>805.0</v>
+        <v>805</v>
       </c>
       <c r="B100" s="4">
-        <v>4.36E-19</v>
+        <v>4.3600000000000003E-19</v>
       </c>
       <c r="C100" s="5">
-        <v>6.99E-20</v>
+        <v>6.9899999999999997E-20</v>
       </c>
       <c r="D100" s="5"/>
       <c r="G100" s="2"/>
@@ -3509,15 +3557,15 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
-        <v>810.0</v>
+        <v>810</v>
       </c>
       <c r="B101" s="4">
-        <v>4.43E-19</v>
+        <v>4.4299999999999997E-19</v>
       </c>
       <c r="C101" s="5">
-        <v>7.1E-20</v>
+        <v>7.0999999999999998E-20</v>
       </c>
       <c r="D101" s="5"/>
       <c r="G101" s="2"/>
@@ -3541,15 +3589,15 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
-        <v>815.0</v>
+        <v>815</v>
       </c>
       <c r="B102" s="4">
-        <v>4.42E-19</v>
+        <v>4.4200000000000004E-19</v>
       </c>
       <c r="C102" s="5">
-        <v>7.08E-20</v>
+        <v>7.0800000000000003E-20</v>
       </c>
       <c r="D102" s="5"/>
       <c r="G102" s="2"/>
@@ -3573,15 +3621,15 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
-        <v>820.0</v>
+        <v>820</v>
       </c>
       <c r="B103" s="4">
-        <v>4.4E-19</v>
+        <v>4.3999999999999997E-19</v>
       </c>
       <c r="C103" s="5">
-        <v>7.04E-20</v>
+        <v>7.0400000000000002E-20</v>
       </c>
       <c r="D103" s="5"/>
       <c r="G103" s="2"/>
@@ -3605,15 +3653,15 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
-        <v>825.0</v>
+        <v>825</v>
       </c>
       <c r="B104" s="4">
-        <v>4.44E-19</v>
+        <v>4.4400000000000001E-19</v>
       </c>
       <c r="C104" s="5">
-        <v>7.12E-20</v>
+        <v>7.1200000000000004E-20</v>
       </c>
       <c r="D104" s="5"/>
       <c r="G104" s="2"/>
@@ -3637,15 +3685,15 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
-        <v>830.0</v>
+        <v>830</v>
       </c>
       <c r="B105" s="4">
         <v>4.35E-19</v>
       </c>
       <c r="C105" s="5">
-        <v>6.97E-20</v>
+        <v>6.9700000000000003E-20</v>
       </c>
       <c r="D105" s="5"/>
       <c r="G105" s="2"/>
@@ -3669,9 +3717,9 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
-        <v>835.0</v>
+        <v>835</v>
       </c>
       <c r="B106" s="4">
         <v>4.96E-19</v>
@@ -3701,15 +3749,15 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
-        <v>840.0</v>
+        <v>840</v>
       </c>
       <c r="B107" s="4">
-        <v>4.65E-19</v>
+        <v>4.6500000000000003E-19</v>
       </c>
       <c r="C107" s="5">
-        <v>7.44E-20</v>
+        <v>7.4400000000000002E-20</v>
       </c>
       <c r="D107" s="5"/>
       <c r="G107" s="2"/>
@@ -3733,15 +3781,15 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
-        <v>845.0</v>
+        <v>845</v>
       </c>
       <c r="B108" s="4">
-        <v>4.74E-19</v>
+        <v>4.7400000000000004E-19</v>
       </c>
       <c r="C108" s="5">
-        <v>7.58E-20</v>
+        <v>7.5800000000000001E-20</v>
       </c>
       <c r="D108" s="5"/>
       <c r="G108" s="2"/>
@@ -3765,15 +3813,15 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
-        <v>850.0</v>
+        <v>850</v>
       </c>
       <c r="B109" s="4">
         <v>4.67E-19</v>
       </c>
       <c r="C109" s="5">
-        <v>7.48E-20</v>
+        <v>7.4800000000000004E-20</v>
       </c>
       <c r="D109" s="5"/>
       <c r="G109" s="2"/>
@@ -3797,15 +3845,15 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
-        <v>855.0</v>
+        <v>855</v>
       </c>
       <c r="B110" s="4">
-        <v>4.5E-19</v>
+        <v>4.5000000000000001E-19</v>
       </c>
       <c r="C110" s="5">
-        <v>7.22E-20</v>
+        <v>7.2200000000000001E-20</v>
       </c>
       <c r="D110" s="5"/>
       <c r="G110" s="2"/>
@@ -3829,15 +3877,15 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
-        <v>860.0</v>
+        <v>860</v>
       </c>
       <c r="B111" s="4">
-        <v>4.47E-19</v>
+        <v>4.4700000000000001E-19</v>
       </c>
       <c r="C111" s="5">
-        <v>7.16E-20</v>
+        <v>7.1600000000000006E-20</v>
       </c>
       <c r="D111" s="5"/>
       <c r="G111" s="2"/>
@@ -3861,15 +3909,15 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
-        <v>865.0</v>
+        <v>865</v>
       </c>
       <c r="B112" s="4">
-        <v>4.68E-19</v>
+        <v>4.6800000000000003E-19</v>
       </c>
       <c r="C112" s="5">
-        <v>7.5E-20</v>
+        <v>7.4999999999999998E-20</v>
       </c>
       <c r="D112" s="5"/>
       <c r="G112" s="2"/>
@@ -3893,15 +3941,15 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
-        <v>870.0</v>
+        <v>870</v>
       </c>
       <c r="B113" s="4">
         <v>4.7E-19</v>
       </c>
       <c r="C113" s="5">
-        <v>7.53E-20</v>
+        <v>7.5299999999999996E-20</v>
       </c>
       <c r="D113" s="5"/>
       <c r="G113" s="2"/>
@@ -3925,15 +3973,15 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
-        <v>875.0</v>
+        <v>875</v>
       </c>
       <c r="B114" s="4">
-        <v>4.62E-19</v>
+        <v>4.6200000000000003E-19</v>
       </c>
       <c r="C114" s="5">
-        <v>7.4E-20</v>
+        <v>7.4000000000000001E-20</v>
       </c>
       <c r="D114" s="5"/>
       <c r="G114" s="2"/>
@@ -3957,15 +4005,15 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
-        <v>880.0</v>
+        <v>880</v>
       </c>
       <c r="B115" s="4">
-        <v>4.68E-19</v>
+        <v>4.6800000000000003E-19</v>
       </c>
       <c r="C115" s="5">
-        <v>7.5E-20</v>
+        <v>7.4999999999999998E-20</v>
       </c>
       <c r="D115" s="5"/>
       <c r="G115" s="2"/>
@@ -3989,15 +4037,15 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
-        <v>885.0</v>
+        <v>885</v>
       </c>
       <c r="B116" s="4">
         <v>4.67E-19</v>
       </c>
       <c r="C116" s="5">
-        <v>7.48E-20</v>
+        <v>7.4800000000000004E-20</v>
       </c>
       <c r="D116" s="5"/>
       <c r="G116" s="2"/>
@@ -4021,15 +4069,15 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
-        <v>890.0</v>
+        <v>890</v>
       </c>
       <c r="B117" s="4">
-        <v>4.58E-19</v>
+        <v>4.5799999999999999E-19</v>
       </c>
       <c r="C117" s="5">
-        <v>7.33E-20</v>
+        <v>7.3300000000000002E-20</v>
       </c>
       <c r="D117" s="5"/>
       <c r="G117" s="2"/>
@@ -4053,15 +4101,15 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
-        <v>895.0</v>
+        <v>895</v>
       </c>
       <c r="B118" s="4">
-        <v>4.61E-19</v>
+        <v>4.6099999999999999E-19</v>
       </c>
       <c r="C118" s="5">
-        <v>7.38E-20</v>
+        <v>7.3799999999999994E-20</v>
       </c>
       <c r="D118" s="5"/>
       <c r="G118" s="2"/>
@@ -4085,15 +4133,15 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="B119" s="4">
-        <v>4.97E-19</v>
+        <v>4.9700000000000003E-19</v>
       </c>
       <c r="C119" s="5">
-        <v>7.96E-20</v>
+        <v>7.9599999999999994E-20</v>
       </c>
       <c r="D119" s="5"/>
       <c r="G119" s="2"/>
@@ -4117,15 +4165,15 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
-        <v>905.0</v>
+        <v>905</v>
       </c>
       <c r="B120" s="4">
-        <v>4.69E-19</v>
+        <v>4.6899999999999997E-19</v>
       </c>
       <c r="C120" s="5">
-        <v>7.51E-20</v>
+        <v>7.5100000000000001E-20</v>
       </c>
       <c r="D120" s="5"/>
       <c r="G120" s="2"/>
@@ -4149,15 +4197,15 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
-        <v>910.0</v>
+        <v>910</v>
       </c>
       <c r="B121" s="4">
-        <v>4.82E-19</v>
+        <v>4.8200000000000002E-19</v>
       </c>
       <c r="C121" s="5">
-        <v>7.73E-20</v>
+        <v>7.7300000000000002E-20</v>
       </c>
       <c r="D121" s="5"/>
       <c r="G121" s="2"/>
@@ -4181,15 +4229,15 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
-        <v>915.0</v>
+        <v>915</v>
       </c>
       <c r="B122" s="4">
-        <v>4.75E-19</v>
+        <v>4.7499999999999998E-19</v>
       </c>
       <c r="C122" s="5">
-        <v>7.61E-20</v>
+        <v>7.6099999999999999E-20</v>
       </c>
       <c r="D122" s="5"/>
       <c r="G122" s="2"/>
@@ -4213,15 +4261,15 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
-        <v>920.0</v>
+        <v>920</v>
       </c>
       <c r="B123" s="4">
-        <v>4.68E-19</v>
+        <v>4.6800000000000003E-19</v>
       </c>
       <c r="C123" s="5">
-        <v>7.5E-20</v>
+        <v>7.4999999999999998E-20</v>
       </c>
       <c r="D123" s="5"/>
       <c r="G123" s="2"/>
@@ -4245,15 +4293,15 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
-        <v>925.0</v>
+        <v>925</v>
       </c>
       <c r="B124" s="4">
-        <v>4.73E-19</v>
+        <v>4.7300000000000001E-19</v>
       </c>
       <c r="C124" s="5">
-        <v>7.58E-20</v>
+        <v>7.5800000000000001E-20</v>
       </c>
       <c r="D124" s="5"/>
       <c r="G124" s="2"/>
@@ -4277,15 +4325,15 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
-        <v>930.0</v>
+        <v>930</v>
       </c>
       <c r="B125" s="4">
-        <v>4.74E-19</v>
+        <v>4.7400000000000004E-19</v>
       </c>
       <c r="C125" s="5">
-        <v>7.59E-20</v>
+        <v>7.5900000000000004E-20</v>
       </c>
       <c r="D125" s="5"/>
       <c r="G125" s="2"/>
@@ -4309,12 +4357,12 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
-        <v>935.0</v>
+        <v>935</v>
       </c>
       <c r="B126" s="4">
-        <v>4.85E-19</v>
+        <v>4.8500000000000002E-19</v>
       </c>
       <c r="C126" s="5">
         <v>7.76E-20</v>
@@ -4341,15 +4389,15 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
-        <v>940.0</v>
+        <v>940</v>
       </c>
       <c r="B127" s="4">
-        <v>4.85E-19</v>
+        <v>4.8500000000000002E-19</v>
       </c>
       <c r="C127" s="5">
-        <v>7.78E-20</v>
+        <v>7.7799999999999995E-20</v>
       </c>
       <c r="D127" s="5"/>
       <c r="G127" s="2"/>
@@ -4373,15 +4421,15 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
-        <v>945.0</v>
+        <v>945</v>
       </c>
       <c r="B128" s="4">
-        <v>4.79E-19</v>
+        <v>4.7900000000000001E-19</v>
       </c>
       <c r="C128" s="5">
-        <v>7.66E-20</v>
+        <v>7.6600000000000003E-20</v>
       </c>
       <c r="D128" s="5"/>
       <c r="G128" s="2"/>
@@ -4405,15 +4453,15 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
-        <v>950.0</v>
+        <v>950</v>
       </c>
       <c r="B129" s="4">
-        <v>4.74E-19</v>
+        <v>4.7400000000000004E-19</v>
       </c>
       <c r="C129" s="5">
-        <v>7.59E-20</v>
+        <v>7.5900000000000004E-20</v>
       </c>
       <c r="D129" s="5"/>
       <c r="G129" s="2"/>
@@ -4437,15 +4485,15 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
-        <v>955.0</v>
+        <v>955</v>
       </c>
       <c r="B130" s="4">
-        <v>4.87E-19</v>
+        <v>4.8699999999999999E-19</v>
       </c>
       <c r="C130" s="5">
-        <v>7.8E-20</v>
+        <v>7.8000000000000001E-20</v>
       </c>
       <c r="D130" s="5"/>
       <c r="G130" s="2"/>
@@ -4469,15 +4517,15 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
-        <v>960.0</v>
+        <v>960</v>
       </c>
       <c r="B131" s="4">
-        <v>4.79E-19</v>
+        <v>4.7900000000000001E-19</v>
       </c>
       <c r="C131" s="5">
-        <v>7.66E-20</v>
+        <v>7.6600000000000003E-20</v>
       </c>
       <c r="D131" s="5"/>
       <c r="G131" s="2"/>
@@ -4501,15 +4549,15 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
-        <v>965.0</v>
+        <v>965</v>
       </c>
       <c r="B132" s="4">
-        <v>4.77E-19</v>
+        <v>4.7700000000000004E-19</v>
       </c>
       <c r="C132" s="5">
-        <v>7.63E-20</v>
+        <v>7.6300000000000005E-20</v>
       </c>
       <c r="D132" s="5"/>
       <c r="G132" s="2"/>
@@ -4533,15 +4581,15 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
-        <v>970.0</v>
+        <v>970</v>
       </c>
       <c r="B133" s="4">
-        <v>5.04E-19</v>
+        <v>5.0399999999999998E-19</v>
       </c>
       <c r="C133" s="5">
-        <v>8.07E-20</v>
+        <v>8.0699999999999995E-20</v>
       </c>
       <c r="D133" s="5"/>
       <c r="G133" s="2"/>
@@ -4565,12 +4613,12 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="3">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="B134" s="4">
-        <v>4.85E-19</v>
+        <v>4.8500000000000002E-19</v>
       </c>
       <c r="C134" s="5">
         <v>7.76E-20</v>
@@ -4597,15 +4645,15 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="3">
-        <v>980.0</v>
+        <v>980</v>
       </c>
       <c r="B135" s="4">
-        <v>4.82E-19</v>
+        <v>4.8200000000000002E-19</v>
       </c>
       <c r="C135" s="5">
-        <v>7.7E-20</v>
+        <v>7.7000000000000004E-20</v>
       </c>
       <c r="D135" s="5"/>
       <c r="G135" s="2"/>
@@ -4629,15 +4677,15 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="B136" s="4">
-        <v>4.84E-19</v>
+        <v>4.8399999999999999E-19</v>
       </c>
       <c r="C136" s="5">
-        <v>7.74E-20</v>
+        <v>7.7400000000000006E-20</v>
       </c>
       <c r="D136" s="5"/>
       <c r="G136" s="2"/>
@@ -4661,12 +4709,12 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
-        <v>990.0</v>
+        <v>990</v>
       </c>
       <c r="B137" s="4">
-        <v>4.85E-19</v>
+        <v>4.8500000000000002E-19</v>
       </c>
       <c r="C137" s="5">
         <v>7.76E-20</v>
@@ -4693,15 +4741,15 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="3">
-        <v>995.0</v>
+        <v>995</v>
       </c>
       <c r="B138" s="4">
-        <v>4.82E-19</v>
+        <v>4.8200000000000002E-19</v>
       </c>
       <c r="C138" s="5">
-        <v>7.72E-20</v>
+        <v>7.7199999999999999E-20</v>
       </c>
       <c r="D138" s="5"/>
       <c r="G138" s="2"/>
@@ -4725,15 +4773,15 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="3">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="B139" s="4">
-        <v>4.82E-19</v>
+        <v>4.8200000000000002E-19</v>
       </c>
       <c r="C139" s="5">
-        <v>7.72E-20</v>
+        <v>7.7199999999999999E-20</v>
       </c>
       <c r="D139" s="5"/>
       <c r="G139" s="2"/>
@@ -4757,9 +4805,9 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
-        <v>1005.0</v>
+        <v>1005</v>
       </c>
       <c r="B140" s="4">
         <v>4.96E-19</v>
@@ -4789,15 +4837,15 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="3">
-        <v>1010.0</v>
+        <v>1010</v>
       </c>
       <c r="B141" s="4">
-        <v>4.86E-19</v>
+        <v>4.8599999999999996E-19</v>
       </c>
       <c r="C141" s="5">
-        <v>7.78E-20</v>
+        <v>7.7799999999999995E-20</v>
       </c>
       <c r="D141" s="5"/>
       <c r="G141" s="2"/>
@@ -4821,15 +4869,15 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="3">
-        <v>1015.0</v>
+        <v>1015</v>
       </c>
       <c r="B142" s="4">
-        <v>4.89E-19</v>
+        <v>4.8899999999999996E-19</v>
       </c>
       <c r="C142" s="5">
-        <v>7.82E-20</v>
+        <v>7.8199999999999996E-20</v>
       </c>
       <c r="D142" s="5"/>
       <c r="G142" s="2"/>
@@ -4853,15 +4901,15 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
-        <v>1020.0</v>
+        <v>1020</v>
       </c>
       <c r="B143" s="4">
-        <v>4.9E-19</v>
+        <v>4.8999999999999999E-19</v>
       </c>
       <c r="C143" s="5">
-        <v>7.83E-20</v>
+        <v>7.8299999999999999E-20</v>
       </c>
       <c r="D143" s="5"/>
       <c r="G143" s="2"/>
@@ -4885,9 +4933,9 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
-        <v>1025.0</v>
+        <v>1025</v>
       </c>
       <c r="B144" s="4">
         <v>4.96E-19</v>
@@ -4917,15 +4965,15 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
-        <v>1030.0</v>
+        <v>1030</v>
       </c>
       <c r="B145" s="4">
-        <v>4.9E-19</v>
+        <v>4.8999999999999999E-19</v>
       </c>
       <c r="C145" s="5">
-        <v>7.84E-20</v>
+        <v>7.8400000000000003E-20</v>
       </c>
       <c r="D145" s="5"/>
       <c r="G145" s="2"/>
@@ -4949,9 +4997,9 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
-        <v>1035.0</v>
+        <v>1035</v>
       </c>
       <c r="B146" s="4">
         <v>4.96E-19</v>
@@ -4981,15 +5029,15 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="3">
-        <v>1040.0</v>
+        <v>1040</v>
       </c>
       <c r="B147" s="4">
-        <v>4.85E-19</v>
+        <v>4.8500000000000002E-19</v>
       </c>
       <c r="C147" s="5">
-        <v>7.77E-20</v>
+        <v>7.7700000000000004E-20</v>
       </c>
       <c r="D147" s="5"/>
       <c r="G147" s="2"/>
@@ -5013,15 +5061,15 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
-        <v>1045.0</v>
+        <v>1045</v>
       </c>
       <c r="B148" s="4">
-        <v>4.88E-19</v>
+        <v>4.8800000000000002E-19</v>
       </c>
       <c r="C148" s="5">
-        <v>7.82E-20</v>
+        <v>7.8199999999999996E-20</v>
       </c>
       <c r="D148" s="5"/>
       <c r="G148" s="2"/>
@@ -5045,15 +5093,15 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="B149" s="4">
-        <v>4.92E-19</v>
+        <v>4.9199999999999996E-19</v>
       </c>
       <c r="C149" s="5">
-        <v>7.87E-20</v>
+        <v>7.8700000000000001E-20</v>
       </c>
       <c r="D149" s="5"/>
       <c r="G149" s="2"/>
@@ -5077,15 +5125,15 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
-        <v>1055.0</v>
+        <v>1055</v>
       </c>
       <c r="B150" s="4">
-        <v>4.88E-19</v>
+        <v>4.8800000000000002E-19</v>
       </c>
       <c r="C150" s="5">
-        <v>7.81E-20</v>
+        <v>7.8100000000000005E-20</v>
       </c>
       <c r="D150" s="5"/>
       <c r="G150" s="2"/>
@@ -5109,15 +5157,15 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
-        <v>1060.0</v>
+        <v>1060</v>
       </c>
       <c r="B151" s="4">
-        <v>4.9E-19</v>
+        <v>4.8999999999999999E-19</v>
       </c>
       <c r="C151" s="5">
-        <v>7.84E-20</v>
+        <v>7.8400000000000003E-20</v>
       </c>
       <c r="D151" s="5"/>
       <c r="G151" s="2"/>
@@ -5141,15 +5189,15 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
-        <v>1065.0</v>
+        <v>1065</v>
       </c>
       <c r="B152" s="4">
-        <v>4.89E-19</v>
+        <v>4.8899999999999996E-19</v>
       </c>
       <c r="C152" s="5">
-        <v>7.82E-20</v>
+        <v>7.8199999999999996E-20</v>
       </c>
       <c r="D152" s="5"/>
       <c r="G152" s="2"/>
@@ -5173,15 +5221,15 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
-        <v>1070.0</v>
+        <v>1070</v>
       </c>
       <c r="B153" s="4">
-        <v>4.92E-19</v>
+        <v>4.9199999999999996E-19</v>
       </c>
       <c r="C153" s="5">
-        <v>7.87E-20</v>
+        <v>7.8700000000000001E-20</v>
       </c>
       <c r="D153" s="5"/>
       <c r="G153" s="2"/>
@@ -5205,15 +5253,15 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
-        <v>1075.0</v>
+        <v>1075</v>
       </c>
       <c r="B154" s="4">
         <v>4.96E-19</v>
       </c>
       <c r="C154" s="5">
-        <v>7.93E-20</v>
+        <v>7.9299999999999996E-20</v>
       </c>
       <c r="D154" s="5"/>
       <c r="G154" s="2"/>
@@ -5237,15 +5285,15 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="3">
-        <v>1080.0</v>
+        <v>1080</v>
       </c>
       <c r="B155" s="4">
-        <v>4.92E-19</v>
+        <v>4.9199999999999996E-19</v>
       </c>
       <c r="C155" s="5">
-        <v>7.87E-20</v>
+        <v>7.8700000000000001E-20</v>
       </c>
       <c r="D155" s="5"/>
       <c r="G155" s="2"/>
@@ -5269,15 +5317,15 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="3">
-        <v>1085.0</v>
+        <v>1085</v>
       </c>
       <c r="B156" s="4">
         <v>4.93E-19</v>
       </c>
       <c r="C156" s="5">
-        <v>7.88E-20</v>
+        <v>7.8800000000000004E-20</v>
       </c>
       <c r="D156" s="5"/>
       <c r="G156" s="2"/>
@@ -5301,15 +5349,15 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="3">
-        <v>1090.0</v>
+        <v>1090</v>
       </c>
       <c r="B157" s="4">
-        <v>4.98E-19</v>
+        <v>4.9799999999999997E-19</v>
       </c>
       <c r="C157" s="5">
-        <v>7.97E-20</v>
+        <v>7.9699999999999998E-20</v>
       </c>
       <c r="D157" s="5"/>
       <c r="G157" s="2"/>
@@ -5333,15 +5381,15 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="3">
-        <v>1095.0</v>
+        <v>1095</v>
       </c>
       <c r="B158" s="4">
-        <v>4.88E-19</v>
+        <v>4.8800000000000002E-19</v>
       </c>
       <c r="C158" s="5">
-        <v>7.81E-20</v>
+        <v>7.8100000000000005E-20</v>
       </c>
       <c r="D158" s="5"/>
       <c r="G158" s="2"/>
@@ -5365,15 +5413,15 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="3">
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="B159" s="4">
-        <v>4.92E-19</v>
+        <v>4.9199999999999996E-19</v>
       </c>
       <c r="C159" s="5">
-        <v>7.87E-20</v>
+        <v>7.8700000000000001E-20</v>
       </c>
       <c r="D159" s="5"/>
       <c r="G159" s="2"/>
@@ -5397,15 +5445,15 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
-        <v>1105.0</v>
+        <v>1105</v>
       </c>
       <c r="B160" s="4">
-        <v>4.91E-19</v>
+        <v>4.9100000000000003E-19</v>
       </c>
       <c r="C160" s="5">
-        <v>7.85E-20</v>
+        <v>7.8500000000000006E-20</v>
       </c>
       <c r="D160" s="5"/>
       <c r="G160" s="2"/>
@@ -5429,15 +5477,15 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
-        <v>1110.0</v>
+        <v>1110</v>
       </c>
       <c r="B161" s="4">
-        <v>4.92E-19</v>
+        <v>4.9199999999999996E-19</v>
       </c>
       <c r="C161" s="5">
-        <v>7.87E-20</v>
+        <v>7.8700000000000001E-20</v>
       </c>
       <c r="D161" s="5"/>
       <c r="G161" s="2"/>
@@ -5461,15 +5509,15 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="3">
-        <v>1115.0</v>
+        <v>1115</v>
       </c>
       <c r="B162" s="4">
-        <v>4.91E-19</v>
+        <v>4.9100000000000003E-19</v>
       </c>
       <c r="C162" s="5">
-        <v>7.86E-20</v>
+        <v>7.8599999999999997E-20</v>
       </c>
       <c r="D162" s="5"/>
       <c r="G162" s="2"/>
@@ -5493,15 +5541,15 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
-        <v>1120.0</v>
+        <v>1120</v>
       </c>
       <c r="B163" s="4">
-        <v>4.87E-19</v>
+        <v>4.8699999999999999E-19</v>
       </c>
       <c r="C163" s="5">
-        <v>7.79E-20</v>
+        <v>7.7899999999999998E-20</v>
       </c>
       <c r="D163" s="5"/>
       <c r="G163" s="2"/>
@@ -5525,15 +5573,15 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
-        <v>1125.0</v>
+        <v>1125</v>
       </c>
       <c r="B164" s="4">
-        <v>4.84E-19</v>
+        <v>4.8399999999999999E-19</v>
       </c>
       <c r="C164" s="5">
-        <v>7.75E-20</v>
+        <v>7.7499999999999997E-20</v>
       </c>
       <c r="D164" s="5"/>
       <c r="G164" s="2"/>
@@ -5557,12 +5605,12 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
-        <v>1130.0</v>
+        <v>1130</v>
       </c>
       <c r="B165" s="4">
-        <v>4.85E-19</v>
+        <v>4.8500000000000002E-19</v>
       </c>
       <c r="C165" s="5">
         <v>7.76E-20</v>
@@ -5589,15 +5637,15 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="3">
-        <v>1135.0</v>
+        <v>1135</v>
       </c>
       <c r="B166" s="4">
-        <v>4.91E-19</v>
+        <v>4.9100000000000003E-19</v>
       </c>
       <c r="C166" s="5">
-        <v>7.86E-20</v>
+        <v>7.8599999999999997E-20</v>
       </c>
       <c r="D166" s="5"/>
       <c r="G166" s="2"/>
@@ -5621,15 +5669,15 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="3">
-        <v>1140.0</v>
+        <v>1140</v>
       </c>
       <c r="B167" s="4">
-        <v>4.87E-19</v>
+        <v>4.8699999999999999E-19</v>
       </c>
       <c r="C167" s="5">
-        <v>7.79E-20</v>
+        <v>7.7899999999999998E-20</v>
       </c>
       <c r="D167" s="5"/>
       <c r="G167" s="2"/>
@@ -5653,15 +5701,15 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="3">
-        <v>1145.0</v>
+        <v>1145</v>
       </c>
       <c r="B168" s="4">
-        <v>4.88E-19</v>
+        <v>4.8800000000000002E-19</v>
       </c>
       <c r="C168" s="5">
-        <v>7.81E-20</v>
+        <v>7.8100000000000005E-20</v>
       </c>
       <c r="D168" s="5"/>
       <c r="G168" s="2"/>
@@ -5685,15 +5733,15 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="3">
-        <v>1150.0</v>
+        <v>1150</v>
       </c>
       <c r="B169" s="4">
-        <v>4.87E-19</v>
+        <v>4.8699999999999999E-19</v>
       </c>
       <c r="C169" s="5">
-        <v>7.8E-20</v>
+        <v>7.8000000000000001E-20</v>
       </c>
       <c r="D169" s="5"/>
       <c r="G169" s="2"/>
@@ -5717,15 +5765,15 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
-        <v>1155.0</v>
+        <v>1155</v>
       </c>
       <c r="B170" s="4">
-        <v>4.79E-19</v>
+        <v>4.7900000000000001E-19</v>
       </c>
       <c r="C170" s="5">
-        <v>7.66E-20</v>
+        <v>7.6600000000000003E-20</v>
       </c>
       <c r="D170" s="5"/>
       <c r="G170" s="2"/>
@@ -5749,15 +5797,15 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
-        <v>1160.0</v>
+        <v>1160</v>
       </c>
       <c r="B171" s="4">
-        <v>4.8E-19</v>
+        <v>4.8000000000000005E-19</v>
       </c>
       <c r="C171" s="5">
-        <v>7.68E-20</v>
+        <v>7.6799999999999998E-20</v>
       </c>
       <c r="D171" s="5"/>
       <c r="G171" s="2"/>
@@ -5781,15 +5829,15 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
-        <v>1165.0</v>
+        <v>1165</v>
       </c>
       <c r="B172" s="4">
-        <v>4.84E-19</v>
+        <v>4.8399999999999999E-19</v>
       </c>
       <c r="C172" s="5">
-        <v>7.75E-20</v>
+        <v>7.7499999999999997E-20</v>
       </c>
       <c r="D172" s="5"/>
       <c r="G172" s="2"/>
@@ -5813,15 +5861,15 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="3">
-        <v>1170.0</v>
+        <v>1170</v>
       </c>
       <c r="B173" s="4">
-        <v>4.81E-19</v>
+        <v>4.8099999999999998E-19</v>
       </c>
       <c r="C173" s="5">
-        <v>7.69E-20</v>
+        <v>7.6900000000000001E-20</v>
       </c>
       <c r="D173" s="5"/>
       <c r="G173" s="2"/>
@@ -5845,15 +5893,15 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="3">
-        <v>1175.0</v>
+        <v>1175</v>
       </c>
       <c r="B174" s="4">
-        <v>4.78E-19</v>
+        <v>4.7799999999999998E-19</v>
       </c>
       <c r="C174" s="5">
-        <v>7.64E-20</v>
+        <v>7.6399999999999996E-20</v>
       </c>
       <c r="D174" s="5"/>
       <c r="G174" s="2"/>
@@ -5877,15 +5925,15 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="3">
-        <v>1180.0</v>
+        <v>1180</v>
       </c>
       <c r="B175" s="4">
-        <v>4.84E-19</v>
+        <v>4.8399999999999999E-19</v>
       </c>
       <c r="C175" s="5">
-        <v>7.74E-20</v>
+        <v>7.7400000000000006E-20</v>
       </c>
       <c r="D175" s="5"/>
       <c r="G175" s="2"/>
@@ -5909,15 +5957,15 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="3">
-        <v>1185.0</v>
+        <v>1185</v>
       </c>
       <c r="B176" s="4">
-        <v>4.83E-19</v>
+        <v>4.8299999999999995E-19</v>
       </c>
       <c r="C176" s="5">
-        <v>7.73E-20</v>
+        <v>7.7300000000000002E-20</v>
       </c>
       <c r="D176" s="5"/>
       <c r="G176" s="2"/>
@@ -5941,15 +5989,15 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="3">
-        <v>1190.0</v>
+        <v>1190</v>
       </c>
       <c r="B177" s="4">
-        <v>4.77E-19</v>
+        <v>4.7700000000000004E-19</v>
       </c>
       <c r="C177" s="5">
-        <v>7.63E-20</v>
+        <v>7.6300000000000005E-20</v>
       </c>
       <c r="D177" s="5"/>
       <c r="G177" s="2"/>
@@ -5973,15 +6021,15 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="3">
-        <v>1195.0</v>
+        <v>1195</v>
       </c>
       <c r="B178" s="4">
-        <v>4.8E-19</v>
+        <v>4.8000000000000005E-19</v>
       </c>
       <c r="C178" s="5">
-        <v>7.68E-20</v>
+        <v>7.6799999999999998E-20</v>
       </c>
       <c r="D178" s="5"/>
       <c r="G178" s="2"/>
@@ -6005,15 +6053,15 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="3">
-        <v>1200.0</v>
+        <v>1200</v>
       </c>
       <c r="B179" s="4">
-        <v>4.78E-19</v>
+        <v>4.7799999999999998E-19</v>
       </c>
       <c r="C179" s="5">
-        <v>7.64E-20</v>
+        <v>7.6399999999999996E-20</v>
       </c>
       <c r="D179" s="5"/>
       <c r="G179" s="2"/>
@@ -6037,15 +6085,15 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="3">
-        <v>1205.0</v>
+        <v>1205</v>
       </c>
       <c r="B180" s="4">
-        <v>4.75E-19</v>
+        <v>4.7499999999999998E-19</v>
       </c>
       <c r="C180" s="5">
-        <v>7.6E-20</v>
+        <v>7.5999999999999995E-20</v>
       </c>
       <c r="D180" s="5"/>
       <c r="G180" s="2"/>
@@ -6069,15 +6117,15 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="3">
-        <v>1210.0</v>
+        <v>1210</v>
       </c>
       <c r="B181" s="4">
-        <v>4.75E-19</v>
+        <v>4.7499999999999998E-19</v>
       </c>
       <c r="C181" s="5">
-        <v>7.6E-20</v>
+        <v>7.5999999999999995E-20</v>
       </c>
       <c r="D181" s="5"/>
       <c r="G181" s="2"/>
@@ -6101,15 +6149,15 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="3">
-        <v>1215.0</v>
+        <v>1215</v>
       </c>
       <c r="B182" s="4">
-        <v>4.71E-19</v>
+        <v>4.7100000000000004E-19</v>
       </c>
       <c r="C182" s="5">
-        <v>7.54E-20</v>
+        <v>7.5399999999999999E-20</v>
       </c>
       <c r="D182" s="5"/>
       <c r="G182" s="2"/>
@@ -6133,15 +6181,15 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="3">
-        <v>1220.0</v>
+        <v>1220</v>
       </c>
       <c r="B183" s="4">
-        <v>4.74E-19</v>
+        <v>4.7400000000000004E-19</v>
       </c>
       <c r="C183" s="5">
-        <v>7.58E-20</v>
+        <v>7.5800000000000001E-20</v>
       </c>
       <c r="D183" s="5"/>
       <c r="G183" s="2"/>
@@ -6165,15 +6213,15 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="3">
-        <v>1225.0</v>
+        <v>1225</v>
       </c>
       <c r="B184" s="4">
-        <v>4.69E-19</v>
+        <v>4.6899999999999997E-19</v>
       </c>
       <c r="C184" s="5">
-        <v>7.5E-20</v>
+        <v>7.4999999999999998E-20</v>
       </c>
       <c r="D184" s="5"/>
       <c r="G184" s="2"/>
@@ -6197,15 +6245,15 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="3">
-        <v>1230.0</v>
+        <v>1230</v>
       </c>
       <c r="B185" s="4">
-        <v>4.69E-19</v>
+        <v>4.6899999999999997E-19</v>
       </c>
       <c r="C185" s="5">
-        <v>7.5E-20</v>
+        <v>7.4999999999999998E-20</v>
       </c>
       <c r="D185" s="5"/>
       <c r="G185" s="2"/>
@@ -6229,15 +6277,15 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="3">
-        <v>1235.0</v>
+        <v>1235</v>
       </c>
       <c r="B186" s="4">
-        <v>4.68E-19</v>
+        <v>4.6800000000000003E-19</v>
       </c>
       <c r="C186" s="5">
-        <v>7.48E-20</v>
+        <v>7.4800000000000004E-20</v>
       </c>
       <c r="D186" s="5"/>
       <c r="G186" s="2"/>
@@ -6261,15 +6309,15 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="3">
-        <v>1240.0</v>
+        <v>1240</v>
       </c>
       <c r="B187" s="4">
-        <v>4.66E-19</v>
+        <v>4.6599999999999997E-19</v>
       </c>
       <c r="C187" s="5">
-        <v>7.46E-20</v>
+        <v>7.4599999999999997E-20</v>
       </c>
       <c r="D187" s="5"/>
       <c r="G187" s="2"/>
@@ -6293,15 +6341,15 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="3">
-        <v>1245.0</v>
+        <v>1245</v>
       </c>
       <c r="B188" s="4">
-        <v>4.66E-19</v>
+        <v>4.6599999999999997E-19</v>
       </c>
       <c r="C188" s="5">
-        <v>7.45E-20</v>
+        <v>7.4500000000000006E-20</v>
       </c>
       <c r="D188" s="5"/>
       <c r="G188" s="2"/>
@@ -6325,15 +6373,15 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="3">
-        <v>1250.0</v>
+        <v>1250</v>
       </c>
       <c r="B189" s="4">
         <v>4.7E-19</v>
       </c>
       <c r="C189" s="5">
-        <v>7.52E-20</v>
+        <v>7.5200000000000005E-20</v>
       </c>
       <c r="D189" s="5"/>
       <c r="G189" s="2"/>
@@ -6357,15 +6405,15 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="3">
-        <v>1255.0</v>
+        <v>1255</v>
       </c>
       <c r="B190" s="4">
-        <v>4.59E-19</v>
+        <v>4.5900000000000002E-19</v>
       </c>
       <c r="C190" s="5">
-        <v>7.34E-20</v>
+        <v>7.3400000000000005E-20</v>
       </c>
       <c r="D190" s="5"/>
       <c r="G190" s="2"/>
@@ -6389,15 +6437,15 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="3">
-        <v>1260.0</v>
+        <v>1260</v>
       </c>
       <c r="B191" s="4">
-        <v>4.61E-19</v>
+        <v>4.6099999999999999E-19</v>
       </c>
       <c r="C191" s="5">
-        <v>7.38E-20</v>
+        <v>7.3799999999999994E-20</v>
       </c>
       <c r="D191" s="5"/>
       <c r="G191" s="2"/>
@@ -6421,12 +6469,12 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="3">
-        <v>1265.0</v>
+        <v>1265</v>
       </c>
       <c r="B192" s="4">
-        <v>4.6E-19</v>
+        <v>4.5999999999999996E-19</v>
       </c>
       <c r="C192" s="5">
         <v>7.36E-20</v>
@@ -6453,15 +6501,15 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="3">
-        <v>1270.0</v>
+        <v>1270</v>
       </c>
       <c r="B193" s="4">
-        <v>4.62E-19</v>
+        <v>4.6200000000000003E-19</v>
       </c>
       <c r="C193" s="5">
-        <v>7.39E-20</v>
+        <v>7.3899999999999998E-20</v>
       </c>
       <c r="D193" s="5"/>
       <c r="G193" s="2"/>
@@ -6485,15 +6533,15 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="3">
-        <v>1275.0</v>
+        <v>1275</v>
       </c>
       <c r="B194" s="4">
-        <v>4.58E-19</v>
+        <v>4.5799999999999999E-19</v>
       </c>
       <c r="C194" s="5">
-        <v>7.32E-20</v>
+        <v>7.3199999999999999E-20</v>
       </c>
       <c r="D194" s="5"/>
       <c r="G194" s="2"/>
@@ -6517,15 +6565,15 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="3">
-        <v>1280.0</v>
+        <v>1280</v>
       </c>
       <c r="B195" s="4">
-        <v>4.55E-19</v>
+        <v>4.5499999999999999E-19</v>
       </c>
       <c r="C195" s="5">
-        <v>7.29E-20</v>
+        <v>7.2900000000000001E-20</v>
       </c>
       <c r="D195" s="5"/>
       <c r="G195" s="2"/>
@@ -6549,15 +6597,15 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="3">
-        <v>1285.0</v>
+        <v>1285</v>
       </c>
       <c r="B196" s="4">
-        <v>4.57E-19</v>
+        <v>4.5699999999999996E-19</v>
       </c>
       <c r="C196" s="5">
-        <v>7.32E-20</v>
+        <v>7.3199999999999999E-20</v>
       </c>
       <c r="D196" s="5"/>
       <c r="G196" s="2"/>
@@ -6581,15 +6629,15 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="3">
-        <v>1290.0</v>
+        <v>1290</v>
       </c>
       <c r="B197" s="4">
-        <v>4.58E-19</v>
+        <v>4.5799999999999999E-19</v>
       </c>
       <c r="C197" s="5">
-        <v>7.33E-20</v>
+        <v>7.3300000000000002E-20</v>
       </c>
       <c r="D197" s="5"/>
       <c r="G197" s="2"/>
@@ -6613,15 +6661,15 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="3">
-        <v>1295.0</v>
+        <v>1295</v>
       </c>
       <c r="B198" s="4">
-        <v>4.54E-19</v>
+        <v>4.5399999999999995E-19</v>
       </c>
       <c r="C198" s="5">
-        <v>7.27E-20</v>
+        <v>7.2699999999999994E-20</v>
       </c>
       <c r="D198" s="5"/>
       <c r="G198" s="2"/>
@@ -6645,15 +6693,15 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="3">
-        <v>1300.0</v>
+        <v>1300</v>
       </c>
       <c r="B199" s="4">
-        <v>4.55E-19</v>
+        <v>4.5499999999999999E-19</v>
       </c>
       <c r="C199" s="5">
-        <v>7.29E-20</v>
+        <v>7.2900000000000001E-20</v>
       </c>
       <c r="D199" s="5"/>
       <c r="G199" s="2"/>
@@ -6677,15 +6725,15 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="3">
-        <v>1305.0</v>
+        <v>1305</v>
       </c>
       <c r="B200" s="4">
-        <v>4.54E-19</v>
+        <v>4.5399999999999995E-19</v>
       </c>
       <c r="C200" s="5">
-        <v>7.26E-20</v>
+        <v>7.2600000000000003E-20</v>
       </c>
       <c r="D200" s="5"/>
       <c r="G200" s="2"/>
@@ -6709,15 +6757,15 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="3">
-        <v>1310.0</v>
+        <v>1310</v>
       </c>
       <c r="B201" s="4">
-        <v>4.5E-19</v>
+        <v>4.5000000000000001E-19</v>
       </c>
       <c r="C201" s="5">
-        <v>7.22E-20</v>
+        <v>7.2200000000000001E-20</v>
       </c>
       <c r="D201" s="5"/>
       <c r="G201" s="2"/>
@@ -6741,15 +6789,15 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="3">
-        <v>1315.0</v>
+        <v>1315</v>
       </c>
       <c r="B202" s="4">
-        <v>4.53E-19</v>
+        <v>4.5300000000000002E-19</v>
       </c>
       <c r="C202" s="5">
-        <v>7.26E-20</v>
+        <v>7.2600000000000003E-20</v>
       </c>
       <c r="D202" s="5"/>
       <c r="G202" s="2"/>
@@ -6773,15 +6821,15 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="3">
-        <v>1320.0</v>
+        <v>1320</v>
       </c>
       <c r="B203" s="4">
-        <v>4.5E-19</v>
+        <v>4.5000000000000001E-19</v>
       </c>
       <c r="C203" s="5">
-        <v>7.21E-20</v>
+        <v>7.2099999999999998E-20</v>
       </c>
       <c r="D203" s="5"/>
       <c r="G203" s="2"/>
@@ -6805,15 +6853,15 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="3">
-        <v>1325.0</v>
+        <v>1325</v>
       </c>
       <c r="B204" s="4">
-        <v>4.45E-19</v>
+        <v>4.4500000000000004E-19</v>
       </c>
       <c r="C204" s="5">
-        <v>7.14E-20</v>
+        <v>7.1399999999999999E-20</v>
       </c>
       <c r="D204" s="5"/>
       <c r="G204" s="2"/>
@@ -6837,15 +6885,15 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="3">
-        <v>1330.0</v>
+        <v>1330</v>
       </c>
       <c r="B205" s="4">
-        <v>4.48E-19</v>
+        <v>4.4800000000000004E-19</v>
       </c>
       <c r="C205" s="5">
-        <v>7.17E-20</v>
+        <v>7.1699999999999997E-20</v>
       </c>
       <c r="D205" s="5"/>
       <c r="G205" s="2"/>
@@ -6869,15 +6917,15 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="3">
-        <v>1335.0</v>
+        <v>1335</v>
       </c>
       <c r="B206" s="4">
-        <v>4.47E-19</v>
+        <v>4.4700000000000001E-19</v>
       </c>
       <c r="C206" s="5">
-        <v>7.16E-20</v>
+        <v>7.1600000000000006E-20</v>
       </c>
       <c r="D206" s="5"/>
       <c r="G206" s="2"/>
@@ -6901,15 +6949,15 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="3">
-        <v>1340.0</v>
+        <v>1340</v>
       </c>
       <c r="B207" s="4">
-        <v>4.5E-19</v>
+        <v>4.5000000000000001E-19</v>
       </c>
       <c r="C207" s="5">
-        <v>7.21E-20</v>
+        <v>7.2099999999999998E-20</v>
       </c>
       <c r="D207" s="5"/>
       <c r="G207" s="2"/>
@@ -6933,15 +6981,15 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="3">
-        <v>1345.0</v>
+        <v>1345</v>
       </c>
       <c r="B208" s="4">
-        <v>4.47E-19</v>
+        <v>4.4700000000000001E-19</v>
       </c>
       <c r="C208" s="5">
-        <v>7.15E-20</v>
+        <v>7.1500000000000002E-20</v>
       </c>
       <c r="D208" s="5"/>
       <c r="G208" s="2"/>
@@ -6965,15 +7013,15 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="3">
-        <v>1350.0</v>
+        <v>1350</v>
       </c>
       <c r="B209" s="4">
-        <v>4.47E-19</v>
+        <v>4.4700000000000001E-19</v>
       </c>
       <c r="C209" s="5">
-        <v>7.16E-20</v>
+        <v>7.1600000000000006E-20</v>
       </c>
       <c r="D209" s="5"/>
       <c r="G209" s="2"/>
@@ -6997,15 +7045,15 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="3">
-        <v>1355.0</v>
+        <v>1355</v>
       </c>
       <c r="B210" s="4">
-        <v>4.43E-19</v>
+        <v>4.4299999999999997E-19</v>
       </c>
       <c r="C210" s="5">
-        <v>7.09E-20</v>
+        <v>7.0899999999999994E-20</v>
       </c>
       <c r="D210" s="5"/>
       <c r="G210" s="2"/>
@@ -7029,15 +7077,15 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="3">
-        <v>1360.0</v>
+        <v>1360</v>
       </c>
       <c r="B211" s="4">
         <v>4.38E-19</v>
       </c>
       <c r="C211" s="5">
-        <v>7.02E-20</v>
+        <v>7.0199999999999995E-20</v>
       </c>
       <c r="D211" s="5"/>
       <c r="G211" s="2"/>
@@ -7061,15 +7109,15 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="3">
-        <v>1365.0</v>
+        <v>1365</v>
       </c>
       <c r="B212" s="4">
-        <v>4.4E-19</v>
+        <v>4.3999999999999997E-19</v>
       </c>
       <c r="C212" s="5">
-        <v>7.05E-20</v>
+        <v>7.0500000000000005E-20</v>
       </c>
       <c r="D212" s="5"/>
       <c r="G212" s="2"/>
@@ -7093,15 +7141,15 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="3">
-        <v>1370.0</v>
+        <v>1370</v>
       </c>
       <c r="B213" s="4">
-        <v>4.4E-19</v>
+        <v>4.3999999999999997E-19</v>
       </c>
       <c r="C213" s="5">
-        <v>7.05E-20</v>
+        <v>7.0500000000000005E-20</v>
       </c>
       <c r="D213" s="5"/>
       <c r="G213" s="2"/>
@@ -7125,15 +7173,15 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="3">
-        <v>1375.0</v>
+        <v>1375</v>
       </c>
       <c r="B214" s="4">
-        <v>4.44E-19</v>
+        <v>4.4400000000000001E-19</v>
       </c>
       <c r="C214" s="5">
-        <v>7.12E-20</v>
+        <v>7.1200000000000004E-20</v>
       </c>
       <c r="D214" s="5"/>
       <c r="G214" s="2"/>
@@ -7157,15 +7205,15 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="3">
-        <v>1380.0</v>
+        <v>1380</v>
       </c>
       <c r="B215" s="4">
         <v>4.35E-19</v>
       </c>
       <c r="C215" s="5">
-        <v>6.97E-20</v>
+        <v>6.9700000000000003E-20</v>
       </c>
       <c r="D215" s="5"/>
       <c r="G215" s="2"/>
@@ -7189,15 +7237,15 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="3">
-        <v>1385.0</v>
+        <v>1385</v>
       </c>
       <c r="B216" s="4">
-        <v>4.37E-19</v>
+        <v>4.3699999999999997E-19</v>
       </c>
       <c r="C216" s="5">
-        <v>6.99E-20</v>
+        <v>6.9899999999999997E-20</v>
       </c>
       <c r="D216" s="5"/>
       <c r="G216" s="2"/>
@@ -7221,15 +7269,15 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="3">
-        <v>1390.0</v>
+        <v>1390</v>
       </c>
       <c r="B217" s="4">
-        <v>4.29E-19</v>
+        <v>4.2899999999999999E-19</v>
       </c>
       <c r="C217" s="5">
-        <v>6.88E-20</v>
+        <v>6.8799999999999997E-20</v>
       </c>
       <c r="D217" s="5"/>
       <c r="G217" s="2"/>
@@ -7253,15 +7301,15 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="3">
-        <v>1395.0</v>
+        <v>1395</v>
       </c>
       <c r="B218" s="4">
-        <v>4.39E-19</v>
+        <v>4.3900000000000003E-19</v>
       </c>
       <c r="C218" s="5">
-        <v>7.03E-20</v>
+        <v>7.0299999999999999E-20</v>
       </c>
       <c r="D218" s="5"/>
       <c r="G218" s="2"/>
@@ -7285,15 +7333,15 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="3">
-        <v>1400.0</v>
+        <v>1400</v>
       </c>
       <c r="B219" s="4">
-        <v>4.36E-19</v>
+        <v>4.3600000000000003E-19</v>
       </c>
       <c r="C219" s="5">
-        <v>6.98E-20</v>
+        <v>6.9799999999999994E-20</v>
       </c>
       <c r="D219" s="5"/>
       <c r="G219" s="2"/>
@@ -7317,15 +7365,15 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="3">
-        <v>1405.0</v>
+        <v>1405</v>
       </c>
       <c r="B220" s="4">
         <v>4.38E-19</v>
       </c>
       <c r="C220" s="5">
-        <v>7.01E-20</v>
+        <v>7.0100000000000004E-20</v>
       </c>
       <c r="D220" s="5"/>
       <c r="G220" s="2"/>
@@ -7349,15 +7397,15 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="3">
-        <v>1410.0</v>
+        <v>1410</v>
       </c>
       <c r="B221" s="4">
-        <v>4.36E-19</v>
+        <v>4.3600000000000003E-19</v>
       </c>
       <c r="C221" s="5">
-        <v>6.99E-20</v>
+        <v>6.9899999999999997E-20</v>
       </c>
       <c r="D221" s="5"/>
       <c r="G221" s="2"/>
@@ -7381,15 +7429,15 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="3">
-        <v>1415.0</v>
+        <v>1415</v>
       </c>
       <c r="B222" s="4">
-        <v>4.34E-19</v>
+        <v>4.3399999999999996E-19</v>
       </c>
       <c r="C222" s="5">
-        <v>6.95E-20</v>
+        <v>6.9499999999999996E-20</v>
       </c>
       <c r="D222" s="5"/>
       <c r="G222" s="2"/>
@@ -7413,15 +7461,15 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="3">
-        <v>1420.0</v>
+        <v>1420</v>
       </c>
       <c r="B223" s="4">
-        <v>4.31E-19</v>
+        <v>4.3100000000000001E-19</v>
       </c>
       <c r="C223" s="5">
-        <v>6.91E-20</v>
+        <v>6.9099999999999995E-20</v>
       </c>
       <c r="D223" s="5"/>
       <c r="G223" s="2"/>
@@ -7445,15 +7493,15 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="3">
-        <v>1425.0</v>
+        <v>1425</v>
       </c>
       <c r="B224" s="4">
-        <v>4.36E-19</v>
+        <v>4.3600000000000003E-19</v>
       </c>
       <c r="C224" s="5">
-        <v>6.98E-20</v>
+        <v>6.9799999999999994E-20</v>
       </c>
       <c r="D224" s="5"/>
       <c r="G224" s="2"/>
@@ -7477,15 +7525,15 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="3">
-        <v>1430.0</v>
+        <v>1430</v>
       </c>
       <c r="B225" s="4">
-        <v>4.32E-19</v>
+        <v>4.3199999999999999E-19</v>
       </c>
       <c r="C225" s="5">
-        <v>6.91E-20</v>
+        <v>6.9099999999999995E-20</v>
       </c>
       <c r="D225" s="5"/>
       <c r="G225" s="2"/>
@@ -7509,12 +7557,12 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="3">
-        <v>1435.0</v>
+        <v>1435</v>
       </c>
       <c r="B226" s="4">
-        <v>4.3E-19</v>
+        <v>4.3000000000000002E-19</v>
       </c>
       <c r="C226" s="5">
         <v>6.89E-20</v>
@@ -7541,15 +7589,15 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="3">
-        <v>1440.0</v>
+        <v>1440</v>
       </c>
       <c r="B227" s="4">
-        <v>4.29E-19</v>
+        <v>4.2899999999999999E-19</v>
       </c>
       <c r="C227" s="5">
-        <v>6.88E-20</v>
+        <v>6.8799999999999997E-20</v>
       </c>
       <c r="D227" s="5"/>
       <c r="G227" s="2"/>
@@ -7573,15 +7621,15 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="3">
-        <v>1445.0</v>
+        <v>1445</v>
       </c>
       <c r="B228" s="4">
-        <v>4.27E-19</v>
+        <v>4.2700000000000002E-19</v>
       </c>
       <c r="C228" s="5">
-        <v>6.85E-20</v>
+        <v>6.8499999999999999E-20</v>
       </c>
       <c r="D228" s="5"/>
       <c r="G228" s="2"/>
@@ -7605,15 +7653,15 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="3">
-        <v>1450.0</v>
+        <v>1450</v>
       </c>
       <c r="B229" s="4">
-        <v>4.27E-19</v>
+        <v>4.2700000000000002E-19</v>
       </c>
       <c r="C229" s="5">
-        <v>6.85E-20</v>
+        <v>6.8499999999999999E-20</v>
       </c>
       <c r="D229" s="5"/>
       <c r="G229" s="2"/>
@@ -7637,15 +7685,15 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="3">
-        <v>1455.0</v>
+        <v>1455</v>
       </c>
       <c r="B230" s="4">
         <v>4.25E-19</v>
       </c>
       <c r="C230" s="5">
-        <v>6.81E-20</v>
+        <v>6.8099999999999998E-20</v>
       </c>
       <c r="D230" s="5"/>
       <c r="G230" s="2"/>
@@ -7669,15 +7717,15 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="3">
-        <v>1460.0</v>
+        <v>1460</v>
       </c>
       <c r="B231" s="4">
-        <v>4.29E-19</v>
+        <v>4.2899999999999999E-19</v>
       </c>
       <c r="C231" s="5">
-        <v>6.88E-20</v>
+        <v>6.8799999999999997E-20</v>
       </c>
       <c r="D231" s="5"/>
       <c r="G231" s="2"/>
@@ -7701,15 +7749,15 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="3">
-        <v>1465.0</v>
+        <v>1465</v>
       </c>
       <c r="B232" s="4">
         <v>4.25E-19</v>
       </c>
       <c r="C232" s="5">
-        <v>6.81E-20</v>
+        <v>6.8099999999999998E-20</v>
       </c>
       <c r="D232" s="5"/>
       <c r="G232" s="2"/>
@@ -7733,213 +7781,213 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="8">
-        <v>1470.0</v>
+        <v>1470</v>
       </c>
       <c r="B233" s="9">
-        <v>4.26E-19</v>
+        <v>4.2599999999999999E-19</v>
       </c>
       <c r="C233" s="9">
-        <v>6.82E-20</v>
+        <v>6.8200000000000001E-20</v>
       </c>
       <c r="D233" s="9"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="8">
-        <v>1475.0</v>
+        <v>1475</v>
       </c>
       <c r="B234" s="9">
-        <v>4.19E-19</v>
+        <v>4.1899999999999999E-19</v>
       </c>
       <c r="C234" s="9">
-        <v>6.71E-20</v>
+        <v>6.7100000000000001E-20</v>
       </c>
       <c r="D234" s="9"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="8">
-        <v>1480.0</v>
+        <v>1480</v>
       </c>
       <c r="B235" s="9">
-        <v>4.2E-19</v>
+        <v>4.1999999999999998E-19</v>
       </c>
       <c r="C235" s="9">
-        <v>6.73E-20</v>
+        <v>6.7299999999999995E-20</v>
       </c>
       <c r="D235" s="9"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="8">
-        <v>1485.0</v>
+        <v>1485</v>
       </c>
       <c r="B236" s="9">
-        <v>4.21E-19</v>
+        <v>4.2100000000000001E-19</v>
       </c>
       <c r="C236" s="9">
-        <v>6.75E-20</v>
+        <v>6.7500000000000002E-20</v>
       </c>
       <c r="D236" s="9"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="8">
-        <v>1490.0</v>
+        <v>1490</v>
       </c>
       <c r="B237" s="9">
-        <v>4.19E-19</v>
+        <v>4.1899999999999999E-19</v>
       </c>
       <c r="C237" s="9">
-        <v>6.71E-20</v>
+        <v>6.7100000000000001E-20</v>
       </c>
       <c r="D237" s="9"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="8">
-        <v>1495.0</v>
+        <v>1495</v>
       </c>
       <c r="B238" s="9">
-        <v>4.18E-19</v>
+        <v>4.1800000000000001E-19</v>
       </c>
       <c r="C238" s="9">
-        <v>6.69E-20</v>
+        <v>6.6899999999999994E-20</v>
       </c>
       <c r="D238" s="9"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="8">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="B239" s="9">
-        <v>4.17E-19</v>
+        <v>4.1699999999999998E-19</v>
       </c>
       <c r="C239" s="9">
-        <v>6.68E-20</v>
+        <v>6.6800000000000003E-20</v>
       </c>
       <c r="D239" s="9"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="8">
-        <v>1505.0</v>
+        <v>1505</v>
       </c>
       <c r="B240" s="9">
         <v>4.22E-19</v>
       </c>
       <c r="C240" s="9">
-        <v>6.77E-20</v>
+        <v>6.7699999999999997E-20</v>
       </c>
       <c r="D240" s="9"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="8">
-        <v>1510.0</v>
+        <v>1510</v>
       </c>
       <c r="B241" s="9">
-        <v>4.19E-19</v>
+        <v>4.1899999999999999E-19</v>
       </c>
       <c r="C241" s="9">
-        <v>6.71E-20</v>
+        <v>6.7100000000000001E-20</v>
       </c>
       <c r="D241" s="9"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="8">
-        <v>1515.0</v>
+        <v>1515</v>
       </c>
       <c r="B242" s="9">
-        <v>4.18E-19</v>
+        <v>4.1800000000000001E-19</v>
       </c>
       <c r="C242" s="9">
-        <v>6.7E-20</v>
+        <v>6.6999999999999997E-20</v>
       </c>
       <c r="D242" s="9"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="8">
-        <v>1520.0</v>
+        <v>1520</v>
       </c>
       <c r="B243" s="9">
-        <v>4.13E-19</v>
+        <v>4.1299999999999999E-19</v>
       </c>
       <c r="C243" s="9">
-        <v>6.62E-20</v>
+        <v>6.6199999999999995E-20</v>
       </c>
       <c r="D243" s="9"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="8">
-        <v>1525.0</v>
+        <v>1525</v>
       </c>
       <c r="B244" s="9">
-        <v>4.17E-19</v>
+        <v>4.1699999999999998E-19</v>
       </c>
       <c r="C244" s="9">
-        <v>6.69E-20</v>
+        <v>6.6899999999999994E-20</v>
       </c>
       <c r="D244" s="9"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="8">
-        <v>1530.0</v>
+        <v>1530</v>
       </c>
       <c r="B245" s="9">
-        <v>4.14E-19</v>
+        <v>4.1400000000000002E-19</v>
       </c>
       <c r="C245" s="9">
-        <v>6.63E-20</v>
+        <v>6.6299999999999998E-20</v>
       </c>
       <c r="D245" s="9"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="8">
-        <v>1535.0</v>
+        <v>1535</v>
       </c>
       <c r="B246" s="9">
-        <v>4.16E-19</v>
+        <v>4.1599999999999999E-19</v>
       </c>
       <c r="C246" s="9">
-        <v>6.67E-20</v>
+        <v>6.6699999999999999E-20</v>
       </c>
       <c r="D246" s="9"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="8">
-        <v>1540.0</v>
+        <v>1540</v>
       </c>
       <c r="B247" s="9">
-        <v>4.16E-19</v>
+        <v>4.1599999999999999E-19</v>
       </c>
       <c r="C247" s="9">
-        <v>6.66E-20</v>
+        <v>6.6599999999999996E-20</v>
       </c>
       <c r="D247" s="9"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="8">
-        <v>1545.0</v>
+        <v>1545</v>
       </c>
       <c r="B248" s="9">
-        <v>4.17E-19</v>
+        <v>4.1699999999999998E-19</v>
       </c>
       <c r="C248" s="9">
-        <v>6.69E-20</v>
+        <v>6.6899999999999994E-20</v>
       </c>
       <c r="D248" s="9"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="8">
-        <v>1550.0</v>
+        <v>1550</v>
       </c>
       <c r="B249" s="9">
-        <v>4.1E-19</v>
+        <v>4.0999999999999999E-19</v>
       </c>
       <c r="C249" s="9">
-        <v>6.57E-20</v>
+        <v>6.5700000000000002E-20</v>
       </c>
       <c r="D249" s="9"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="8">
-        <v>1555.0</v>
+        <v>1555</v>
       </c>
       <c r="B250" s="9">
         <v>4.12E-19</v>
@@ -7949,21 +7997,21 @@
       </c>
       <c r="D250" s="9"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="8">
-        <v>1560.0</v>
+        <v>1560</v>
       </c>
       <c r="B251" s="9">
-        <v>4.1E-19</v>
+        <v>4.0999999999999999E-19</v>
       </c>
       <c r="C251" s="9">
-        <v>6.57E-20</v>
+        <v>6.5700000000000002E-20</v>
       </c>
       <c r="D251" s="9"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="8">
-        <v>1565.0</v>
+        <v>1565</v>
       </c>
       <c r="B252" s="9">
         <v>4.12E-19</v>
@@ -7973,9 +8021,9 @@
       </c>
       <c r="D252" s="9"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="8">
-        <v>1570.0</v>
+        <v>1570</v>
       </c>
       <c r="B253" s="9">
         <v>4.12E-19</v>
@@ -7985,633 +8033,633 @@
       </c>
       <c r="D253" s="9"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="8">
-        <v>1575.0</v>
+        <v>1575</v>
       </c>
       <c r="B254" s="9">
-        <v>4.11E-19</v>
+        <v>4.1100000000000002E-19</v>
       </c>
       <c r="C254" s="9">
-        <v>6.59E-20</v>
+        <v>6.5899999999999997E-20</v>
       </c>
       <c r="D254" s="9"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="8">
-        <v>1580.0</v>
+        <v>1580</v>
       </c>
       <c r="B255" s="9">
-        <v>4.1E-19</v>
+        <v>4.0999999999999999E-19</v>
       </c>
       <c r="C255" s="9">
-        <v>6.58E-20</v>
+        <v>6.5800000000000006E-20</v>
       </c>
       <c r="D255" s="9"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="8">
-        <v>1585.0</v>
+        <v>1585</v>
       </c>
       <c r="B256" s="9">
-        <v>4.11E-19</v>
+        <v>4.1100000000000002E-19</v>
       </c>
       <c r="C256" s="9">
-        <v>6.58E-20</v>
+        <v>6.5800000000000006E-20</v>
       </c>
       <c r="D256" s="9"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="8">
-        <v>1590.0</v>
+        <v>1590</v>
       </c>
       <c r="B257" s="9">
         <v>4.12E-19</v>
       </c>
       <c r="C257" s="9">
-        <v>6.59E-20</v>
+        <v>6.5899999999999997E-20</v>
       </c>
       <c r="D257" s="9"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="8">
-        <v>1595.0</v>
+        <v>1595</v>
       </c>
       <c r="B258" s="9">
-        <v>4.08E-19</v>
+        <v>4.0800000000000001E-19</v>
       </c>
       <c r="C258" s="9">
-        <v>6.54E-20</v>
+        <v>6.5400000000000004E-20</v>
       </c>
       <c r="D258" s="9"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="8">
-        <v>1600.0</v>
+        <v>1600</v>
       </c>
       <c r="B259" s="9">
-        <v>4.04E-19</v>
+        <v>4.0399999999999998E-19</v>
       </c>
       <c r="C259" s="9">
-        <v>6.48E-20</v>
+        <v>6.4799999999999997E-20</v>
       </c>
       <c r="D259" s="9"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="8">
-        <v>1605.0</v>
+        <v>1605</v>
       </c>
       <c r="B260" s="9">
-        <v>4.07E-19</v>
+        <v>4.0699999999999998E-19</v>
       </c>
       <c r="C260" s="9">
-        <v>6.52E-20</v>
+        <v>6.5199999999999998E-20</v>
       </c>
       <c r="D260" s="9"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="8">
-        <v>1610.0</v>
+        <v>1610</v>
       </c>
       <c r="B261" s="9">
-        <v>4.07E-19</v>
+        <v>4.0699999999999998E-19</v>
       </c>
       <c r="C261" s="9">
-        <v>6.53E-20</v>
+        <v>6.5300000000000001E-20</v>
       </c>
       <c r="D261" s="9"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="8">
-        <v>1615.0</v>
+        <v>1615</v>
       </c>
       <c r="B262" s="9">
-        <v>4.05E-19</v>
+        <v>4.0500000000000001E-19</v>
       </c>
       <c r="C262" s="9">
         <v>6.49E-20</v>
       </c>
       <c r="D262" s="9"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="8">
-        <v>1620.0</v>
+        <v>1620</v>
       </c>
       <c r="B263" s="9">
-        <v>4.0E-19</v>
+        <v>3.9999999999999999E-19</v>
       </c>
       <c r="C263" s="9">
-        <v>6.41E-20</v>
+        <v>6.4099999999999997E-20</v>
       </c>
       <c r="D263" s="9"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="8">
-        <v>1625.0</v>
+        <v>1625</v>
       </c>
       <c r="B264" s="9">
-        <v>4.01E-19</v>
+        <v>4.0100000000000002E-19</v>
       </c>
       <c r="C264" s="9">
-        <v>6.43E-20</v>
+        <v>6.4300000000000004E-20</v>
       </c>
       <c r="D264" s="9"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="8">
-        <v>1630.0</v>
+        <v>1630</v>
       </c>
       <c r="B265" s="9">
-        <v>4.02E-19</v>
+        <v>4.0200000000000001E-19</v>
       </c>
       <c r="C265" s="9">
-        <v>6.44E-20</v>
+        <v>6.4399999999999995E-20</v>
       </c>
       <c r="D265" s="9"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="8">
-        <v>1635.0</v>
+        <v>1635</v>
       </c>
       <c r="B266" s="9">
-        <v>4.05E-19</v>
+        <v>4.0500000000000001E-19</v>
       </c>
       <c r="C266" s="9">
         <v>6.49E-20</v>
       </c>
       <c r="D266" s="9"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="8">
-        <v>1640.0</v>
+        <v>1640</v>
       </c>
       <c r="B267" s="9">
-        <v>4.05E-19</v>
+        <v>4.0500000000000001E-19</v>
       </c>
       <c r="C267" s="9">
         <v>6.49E-20</v>
       </c>
       <c r="D267" s="9"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="8">
-        <v>1645.0</v>
+        <v>1645</v>
       </c>
       <c r="B268" s="9">
-        <v>4.02E-19</v>
+        <v>4.0200000000000001E-19</v>
       </c>
       <c r="C268" s="9">
-        <v>6.44E-20</v>
+        <v>6.4399999999999995E-20</v>
       </c>
       <c r="D268" s="9"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="8">
-        <v>1650.0</v>
+        <v>1650</v>
       </c>
       <c r="B269" s="9">
-        <v>3.95E-19</v>
+        <v>3.9500000000000002E-19</v>
       </c>
       <c r="C269" s="9">
-        <v>6.34E-20</v>
+        <v>6.3399999999999998E-20</v>
       </c>
       <c r="D269" s="9"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="8">
-        <v>1655.0</v>
+        <v>1655</v>
       </c>
       <c r="B270" s="9">
         <v>3.93E-19</v>
       </c>
       <c r="C270" s="9">
-        <v>6.3E-20</v>
+        <v>6.2999999999999997E-20</v>
       </c>
       <c r="D270" s="9"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="8">
-        <v>1660.0</v>
+        <v>1660</v>
       </c>
       <c r="B271" s="9">
-        <v>4.0E-19</v>
+        <v>3.9999999999999999E-19</v>
       </c>
       <c r="C271" s="9">
-        <v>6.41E-20</v>
+        <v>6.4099999999999997E-20</v>
       </c>
       <c r="D271" s="9"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="8">
-        <v>1665.0</v>
+        <v>1665</v>
       </c>
       <c r="B272" s="9">
-        <v>4.01E-19</v>
+        <v>4.0100000000000002E-19</v>
       </c>
       <c r="C272" s="9">
-        <v>6.42E-20</v>
+        <v>6.4200000000000001E-20</v>
       </c>
       <c r="D272" s="9"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="8">
-        <v>1670.0</v>
+        <v>1670</v>
       </c>
       <c r="B273" s="9">
-        <v>3.99E-19</v>
+        <v>3.9900000000000001E-19</v>
       </c>
       <c r="C273" s="9">
-        <v>6.4E-20</v>
+        <v>6.3999999999999994E-20</v>
       </c>
       <c r="D273" s="9"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="8">
-        <v>1675.0</v>
+        <v>1675</v>
       </c>
       <c r="B274" s="9">
         <v>3.9E-19</v>
       </c>
       <c r="C274" s="9">
-        <v>6.25E-20</v>
+        <v>6.2500000000000004E-20</v>
       </c>
       <c r="D274" s="9"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="8">
-        <v>1680.0</v>
+        <v>1680</v>
       </c>
       <c r="B275" s="9">
-        <v>3.97E-19</v>
+        <v>3.9699999999999999E-19</v>
       </c>
       <c r="C275" s="9">
-        <v>6.36E-20</v>
+        <v>6.3600000000000005E-20</v>
       </c>
       <c r="D275" s="9"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="8">
-        <v>1685.0</v>
+        <v>1685</v>
       </c>
       <c r="B276" s="9">
-        <v>3.91E-19</v>
+        <v>3.9099999999999998E-19</v>
       </c>
       <c r="C276" s="9">
-        <v>6.27E-20</v>
+        <v>6.2699999999999999E-20</v>
       </c>
       <c r="D276" s="9"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="8">
-        <v>1690.0</v>
+        <v>1690</v>
       </c>
       <c r="B277" s="9">
-        <v>4.0E-19</v>
+        <v>3.9999999999999999E-19</v>
       </c>
       <c r="C277" s="9">
-        <v>6.41E-20</v>
+        <v>6.4099999999999997E-20</v>
       </c>
       <c r="D277" s="9"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="8">
-        <v>1695.0</v>
+        <v>1695</v>
       </c>
       <c r="B278" s="9">
         <v>3.93E-19</v>
       </c>
       <c r="C278" s="9">
-        <v>6.29E-20</v>
+        <v>6.2900000000000006E-20</v>
       </c>
       <c r="D278" s="9"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="8">
-        <v>1700.0</v>
+        <v>1700</v>
       </c>
       <c r="B279" s="9">
         <v>3.93E-19</v>
       </c>
       <c r="C279" s="9">
-        <v>6.3E-20</v>
+        <v>6.2999999999999997E-20</v>
       </c>
       <c r="D279" s="9"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="8">
-        <v>1705.0</v>
+        <v>1705</v>
       </c>
       <c r="B280" s="9">
-        <v>3.95E-19</v>
+        <v>3.9500000000000002E-19</v>
       </c>
       <c r="C280" s="9">
-        <v>6.33E-20</v>
+        <v>6.3299999999999995E-20</v>
       </c>
       <c r="D280" s="9"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="8">
-        <v>1710.0</v>
+        <v>1710</v>
       </c>
       <c r="B281" s="9">
-        <v>3.97E-19</v>
+        <v>3.9699999999999999E-19</v>
       </c>
       <c r="C281" s="9">
-        <v>6.37E-20</v>
+        <v>6.3699999999999996E-20</v>
       </c>
       <c r="D281" s="9"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="8">
-        <v>1715.0</v>
+        <v>1715</v>
       </c>
       <c r="B282" s="9">
-        <v>3.94E-19</v>
+        <v>3.9399999999999998E-19</v>
       </c>
       <c r="C282" s="9">
         <v>6.31E-20</v>
       </c>
       <c r="D282" s="9"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="8">
-        <v>1720.0</v>
+        <v>1720</v>
       </c>
       <c r="B283" s="9">
         <v>3.9E-19</v>
       </c>
       <c r="C283" s="9">
-        <v>6.24E-20</v>
+        <v>6.2400000000000001E-20</v>
       </c>
       <c r="D283" s="9"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="8">
-        <v>1725.0</v>
+        <v>1725</v>
       </c>
       <c r="B284" s="9">
-        <v>3.94E-19</v>
+        <v>3.9399999999999998E-19</v>
       </c>
       <c r="C284" s="9">
-        <v>6.32E-20</v>
+        <v>6.3200000000000004E-20</v>
       </c>
       <c r="D284" s="9"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="8">
-        <v>1730.0</v>
+        <v>1730</v>
       </c>
       <c r="B285" s="9">
-        <v>3.88E-19</v>
+        <v>3.8799999999999998E-19</v>
       </c>
       <c r="C285" s="9">
-        <v>6.22E-20</v>
+        <v>6.2199999999999995E-20</v>
       </c>
       <c r="D285" s="9"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="8">
-        <v>1735.0</v>
+        <v>1735</v>
       </c>
       <c r="B286" s="9">
-        <v>3.92E-19</v>
+        <v>3.9200000000000001E-19</v>
       </c>
       <c r="C286" s="9">
-        <v>6.28E-20</v>
+        <v>6.2800000000000002E-20</v>
       </c>
       <c r="D286" s="9"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="8">
-        <v>1740.0</v>
+        <v>1740</v>
       </c>
       <c r="B287" s="9">
-        <v>3.89E-19</v>
+        <v>3.8900000000000001E-19</v>
       </c>
       <c r="C287" s="9">
-        <v>6.23E-20</v>
+        <v>6.2299999999999998E-20</v>
       </c>
       <c r="D287" s="9"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="8">
-        <v>1745.0</v>
+        <v>1745</v>
       </c>
       <c r="B288" s="9">
-        <v>3.91E-19</v>
+        <v>3.9099999999999998E-19</v>
       </c>
       <c r="C288" s="9">
-        <v>6.26E-20</v>
+        <v>6.2599999999999996E-20</v>
       </c>
       <c r="D288" s="9"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="8">
-        <v>1750.0</v>
+        <v>1750</v>
       </c>
       <c r="B289" s="9">
-        <v>3.91E-19</v>
+        <v>3.9099999999999998E-19</v>
       </c>
       <c r="C289" s="9">
-        <v>6.27E-20</v>
+        <v>6.2699999999999999E-20</v>
       </c>
       <c r="D289" s="9"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="8">
-        <v>1755.0</v>
+        <v>1755</v>
       </c>
       <c r="B290" s="9">
-        <v>3.87E-19</v>
+        <v>3.8699999999999999E-19</v>
       </c>
       <c r="C290" s="9">
         <v>6.2E-20</v>
       </c>
       <c r="D290" s="9"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="8">
-        <v>1760.0</v>
+        <v>1760</v>
       </c>
       <c r="B291" s="9">
-        <v>3.85E-19</v>
+        <v>3.8500000000000002E-19</v>
       </c>
       <c r="C291" s="9">
-        <v>6.17E-20</v>
+        <v>6.1700000000000002E-20</v>
       </c>
       <c r="D291" s="9"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="8">
-        <v>1765.0</v>
+        <v>1765</v>
       </c>
       <c r="B292" s="9">
-        <v>3.92E-19</v>
+        <v>3.9200000000000001E-19</v>
       </c>
       <c r="C292" s="9">
-        <v>6.29E-20</v>
+        <v>6.2900000000000006E-20</v>
       </c>
       <c r="D292" s="9"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="8">
-        <v>1770.0</v>
+        <v>1770</v>
       </c>
       <c r="B293" s="9">
-        <v>3.85E-19</v>
+        <v>3.8500000000000002E-19</v>
       </c>
       <c r="C293" s="9">
-        <v>6.17E-20</v>
+        <v>6.1700000000000002E-20</v>
       </c>
       <c r="D293" s="9"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="8">
-        <v>1775.0</v>
+        <v>1775</v>
       </c>
       <c r="B294" s="9">
-        <v>3.85E-19</v>
+        <v>3.8500000000000002E-19</v>
       </c>
       <c r="C294" s="9">
-        <v>6.16E-20</v>
+        <v>6.1599999999999999E-20</v>
       </c>
       <c r="D294" s="9"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="8">
-        <v>1780.0</v>
+        <v>1780</v>
       </c>
       <c r="B295" s="9">
-        <v>3.85E-19</v>
+        <v>3.8500000000000002E-19</v>
       </c>
       <c r="C295" s="9">
-        <v>6.19E-20</v>
+        <v>6.1899999999999997E-20</v>
       </c>
       <c r="D295" s="9"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="8">
-        <v>1785.0</v>
+        <v>1785</v>
       </c>
       <c r="B296" s="9">
-        <v>3.82E-19</v>
+        <v>3.8200000000000002E-19</v>
       </c>
       <c r="C296" s="9">
-        <v>6.13E-20</v>
+        <v>6.1300000000000001E-20</v>
       </c>
       <c r="D296" s="9"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="8">
-        <v>1790.0</v>
+        <v>1790</v>
       </c>
       <c r="B297" s="9">
         <v>3.8E-19</v>
       </c>
       <c r="C297" s="9">
-        <v>6.1E-20</v>
+        <v>6.1000000000000003E-20</v>
       </c>
       <c r="D297" s="9"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="8">
-        <v>1795.0</v>
+        <v>1795</v>
       </c>
       <c r="B298" s="9">
         <v>3.83E-19</v>
       </c>
       <c r="C298" s="9">
-        <v>6.13E-20</v>
+        <v>6.1300000000000001E-20</v>
       </c>
       <c r="D298" s="9"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="8">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="B299" s="9">
-        <v>3.81E-19</v>
+        <v>3.8099999999999999E-19</v>
       </c>
       <c r="C299" s="9">
-        <v>6.11E-20</v>
+        <v>6.1099999999999994E-20</v>
       </c>
       <c r="D299" s="9"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="8">
-        <v>1810.0</v>
+        <v>1810</v>
       </c>
       <c r="B300" s="9">
-        <v>3.82E-19</v>
+        <v>3.8200000000000002E-19</v>
       </c>
       <c r="C300" s="9">
-        <v>6.11E-20</v>
+        <v>6.1099999999999994E-20</v>
       </c>
       <c r="D300" s="9"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="8">
-        <v>1820.0</v>
+        <v>1820</v>
       </c>
       <c r="B301" s="9">
-        <v>3.79E-19</v>
+        <v>3.7900000000000002E-19</v>
       </c>
       <c r="C301" s="9">
-        <v>6.08E-20</v>
+        <v>6.0799999999999996E-20</v>
       </c>
       <c r="D301" s="9"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="8">
-        <v>1830.0</v>
+        <v>1830</v>
       </c>
       <c r="B302" s="9">
         <v>3.83E-19</v>
       </c>
       <c r="C302" s="9">
-        <v>6.14E-20</v>
+        <v>6.1400000000000004E-20</v>
       </c>
       <c r="D302" s="9"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="8">
-        <v>1840.0</v>
+        <v>1840</v>
       </c>
       <c r="B303" s="9">
-        <v>3.78E-19</v>
+        <v>3.7799999999999998E-19</v>
       </c>
       <c r="C303" s="9">
-        <v>6.07E-20</v>
+        <v>6.0700000000000005E-20</v>
       </c>
       <c r="D303" s="9"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="8">
-        <v>1850.0</v>
+        <v>1850</v>
       </c>
       <c r="B304" s="9">
-        <v>3.76E-19</v>
+        <v>3.7600000000000001E-19</v>
       </c>
       <c r="C304" s="9">
-        <v>6.12E-20</v>
+        <v>6.1199999999999997E-20</v>
       </c>
       <c r="D304" s="9"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="8">
-        <v>1860.0</v>
+        <v>1860</v>
       </c>
       <c r="B305" s="9">
-        <v>3.76E-19</v>
+        <v>3.7600000000000001E-19</v>
       </c>
       <c r="C305" s="9">
-        <v>6.11E-20</v>
+        <v>6.1099999999999994E-20</v>
       </c>
       <c r="D305" s="9"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="8">
-        <v>1870.0</v>
+        <v>1870</v>
       </c>
       <c r="B306" s="9">
         <v>3.8E-19</v>
@@ -8621,1377 +8669,1377 @@
       </c>
       <c r="D306" s="9"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="8">
-        <v>1880.0</v>
+        <v>1880</v>
       </c>
       <c r="B307" s="9">
-        <v>3.73E-19</v>
+        <v>3.7300000000000001E-19</v>
       </c>
       <c r="C307" s="9">
-        <v>6.07E-20</v>
+        <v>6.0700000000000005E-20</v>
       </c>
       <c r="D307" s="9"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="8">
-        <v>1890.0</v>
+        <v>1890</v>
       </c>
       <c r="B308" s="9">
-        <v>3.79E-19</v>
+        <v>3.7900000000000002E-19</v>
       </c>
       <c r="C308" s="9">
-        <v>6.16E-20</v>
+        <v>6.1599999999999999E-20</v>
       </c>
       <c r="D308" s="9"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="8">
-        <v>1900.0</v>
+        <v>1900</v>
       </c>
       <c r="B309" s="9">
-        <v>3.78E-19</v>
+        <v>3.7799999999999998E-19</v>
       </c>
       <c r="C309" s="9">
-        <v>6.15E-20</v>
+        <v>6.1499999999999995E-20</v>
       </c>
       <c r="D309" s="9"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="8">
-        <v>1910.0</v>
+        <v>1910</v>
       </c>
       <c r="B310" s="9">
         <v>3.67E-19</v>
       </c>
       <c r="C310" s="9">
-        <v>5.96E-20</v>
+        <v>5.9600000000000004E-20</v>
       </c>
       <c r="D310" s="9"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="8">
-        <v>1920.0</v>
+        <v>1920</v>
       </c>
       <c r="B311" s="9">
-        <v>3.75E-19</v>
+        <v>3.7499999999999998E-19</v>
       </c>
       <c r="C311" s="9">
         <v>6.09E-20</v>
       </c>
       <c r="D311" s="9"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="8">
-        <v>1930.0</v>
+        <v>1930</v>
       </c>
       <c r="B312" s="9">
-        <v>3.53E-19</v>
+        <v>3.5300000000000002E-19</v>
       </c>
       <c r="C312" s="9">
-        <v>5.74E-20</v>
+        <v>5.7400000000000004E-20</v>
       </c>
       <c r="D312" s="9"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="8">
-        <v>1940.0</v>
+        <v>1940</v>
       </c>
       <c r="B313" s="9">
-        <v>3.71E-19</v>
+        <v>3.7099999999999999E-19</v>
       </c>
       <c r="C313" s="9">
-        <v>6.04E-20</v>
+        <v>6.0399999999999995E-20</v>
       </c>
       <c r="D313" s="9"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="8">
-        <v>1950.0</v>
+        <v>1950</v>
       </c>
       <c r="B314" s="9">
-        <v>3.68E-19</v>
+        <v>3.6799999999999999E-19</v>
       </c>
       <c r="C314" s="9">
-        <v>5.98E-20</v>
+        <v>5.9799999999999999E-20</v>
       </c>
       <c r="D314" s="9"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="8">
-        <v>1960.0</v>
+        <v>1960</v>
       </c>
       <c r="B315" s="9">
-        <v>3.75E-19</v>
+        <v>3.7499999999999998E-19</v>
       </c>
       <c r="C315" s="9">
-        <v>6.08E-20</v>
+        <v>6.0799999999999996E-20</v>
       </c>
       <c r="D315" s="9"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="8">
-        <v>1970.0</v>
+        <v>1970</v>
       </c>
       <c r="B316" s="9">
-        <v>3.71E-19</v>
+        <v>3.7099999999999999E-19</v>
       </c>
       <c r="C316" s="9">
-        <v>6.04E-20</v>
+        <v>6.0399999999999995E-20</v>
       </c>
       <c r="D316" s="9"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="8">
-        <v>1980.0</v>
+        <v>1980</v>
       </c>
       <c r="B317" s="9">
         <v>3.54E-19</v>
       </c>
       <c r="C317" s="9">
-        <v>5.79E-20</v>
+        <v>5.7899999999999996E-20</v>
       </c>
       <c r="D317" s="9"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="8">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="B318" s="9">
-        <v>3.58E-19</v>
+        <v>3.5799999999999999E-19</v>
       </c>
       <c r="C318" s="9">
-        <v>5.95E-20</v>
+        <v>5.9500000000000001E-20</v>
       </c>
       <c r="D318" s="9"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="8">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="B319" s="9">
         <v>3.64E-19</v>
       </c>
       <c r="C319" s="9">
-        <v>6.05E-20</v>
+        <v>6.0499999999999998E-20</v>
       </c>
       <c r="D319" s="9"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="8">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="B320" s="9">
-        <v>3.6E-19</v>
+        <v>3.6000000000000001E-19</v>
       </c>
       <c r="C320" s="9">
-        <v>6.04E-20</v>
+        <v>6.0399999999999995E-20</v>
       </c>
       <c r="D320" s="9"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="8">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="B321" s="9">
-        <v>3.65E-19</v>
+        <v>3.6499999999999998E-19</v>
       </c>
       <c r="C321" s="9">
-        <v>6.06E-20</v>
+        <v>6.0600000000000002E-20</v>
       </c>
       <c r="D321" s="9"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="8">
-        <v>2030.0</v>
+        <v>2030</v>
       </c>
       <c r="B322" s="9">
-        <v>3.43E-19</v>
+        <v>3.4300000000000002E-19</v>
       </c>
       <c r="C322" s="9">
-        <v>5.71E-20</v>
+        <v>5.7100000000000006E-20</v>
       </c>
       <c r="D322" s="9"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="8">
-        <v>2040.0</v>
+        <v>2040</v>
       </c>
       <c r="B323" s="9">
-        <v>3.85E-19</v>
+        <v>3.8500000000000002E-19</v>
       </c>
       <c r="C323" s="9">
-        <v>6.37E-20</v>
+        <v>6.3699999999999996E-20</v>
       </c>
       <c r="D323" s="9"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="8">
-        <v>2050.0</v>
+        <v>2050</v>
       </c>
       <c r="B324" s="9">
-        <v>3.65E-19</v>
+        <v>3.6499999999999998E-19</v>
       </c>
       <c r="C324" s="9">
-        <v>6.06E-20</v>
+        <v>6.0600000000000002E-20</v>
       </c>
       <c r="D324" s="9"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="8">
-        <v>2060.0</v>
+        <v>2060</v>
       </c>
       <c r="B325" s="9">
         <v>3.67E-19</v>
       </c>
       <c r="C325" s="9">
-        <v>6.07E-20</v>
+        <v>6.0700000000000005E-20</v>
       </c>
       <c r="D325" s="9"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="8">
-        <v>2070.0</v>
+        <v>2070</v>
       </c>
       <c r="B326" s="9">
-        <v>3.34E-19</v>
+        <v>3.3400000000000001E-19</v>
       </c>
       <c r="C326" s="9">
-        <v>5.59E-20</v>
+        <v>5.5900000000000002E-20</v>
       </c>
       <c r="D326" s="9"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="8">
-        <v>2080.0</v>
+        <v>2080</v>
       </c>
       <c r="B327" s="9">
-        <v>3.62E-19</v>
+        <v>3.6199999999999998E-19</v>
       </c>
       <c r="C327" s="9">
-        <v>5.98E-20</v>
+        <v>5.9799999999999999E-20</v>
       </c>
       <c r="D327" s="9"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="8">
-        <v>2090.0</v>
+        <v>2090</v>
       </c>
       <c r="B328" s="9">
         <v>3.67E-19</v>
       </c>
       <c r="C328" s="9">
-        <v>6.08E-20</v>
+        <v>6.0799999999999996E-20</v>
       </c>
       <c r="D328" s="9"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="8">
-        <v>2100.0</v>
+        <v>2100</v>
       </c>
       <c r="B329" s="9">
         <v>3.51E-19</v>
       </c>
       <c r="C329" s="9">
-        <v>5.82E-20</v>
+        <v>5.8199999999999994E-20</v>
       </c>
       <c r="D329" s="9"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="8">
-        <v>2110.0</v>
+        <v>2110</v>
       </c>
       <c r="B330" s="9">
-        <v>3.49E-19</v>
+        <v>3.4899999999999998E-19</v>
       </c>
       <c r="C330" s="9">
-        <v>5.78E-20</v>
+        <v>5.7800000000000005E-20</v>
       </c>
       <c r="D330" s="9"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="8">
-        <v>2120.0</v>
+        <v>2120</v>
       </c>
       <c r="B331" s="9">
-        <v>3.66E-19</v>
+        <v>3.6600000000000002E-19</v>
       </c>
       <c r="C331" s="9">
-        <v>6.03E-20</v>
+        <v>6.0300000000000004E-20</v>
       </c>
       <c r="D331" s="9"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="8">
-        <v>2130.0</v>
+        <v>2130</v>
       </c>
       <c r="B332" s="9">
-        <v>3.49E-19</v>
+        <v>3.4899999999999998E-19</v>
       </c>
       <c r="C332" s="9">
-        <v>5.82E-20</v>
+        <v>5.8199999999999994E-20</v>
       </c>
       <c r="D332" s="9"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="8">
-        <v>2140.0</v>
+        <v>2140</v>
       </c>
       <c r="B333" s="9">
-        <v>3.53E-19</v>
+        <v>3.5300000000000002E-19</v>
       </c>
       <c r="C333" s="9">
-        <v>5.83E-20</v>
+        <v>5.8299999999999997E-20</v>
       </c>
       <c r="D333" s="9"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="8">
-        <v>2150.0</v>
+        <v>2150</v>
       </c>
       <c r="B334" s="9">
         <v>3.51E-19</v>
       </c>
       <c r="C334" s="9">
-        <v>5.82E-20</v>
+        <v>5.8199999999999994E-20</v>
       </c>
       <c r="D334" s="9"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="8">
-        <v>2160.0</v>
+        <v>2160</v>
       </c>
       <c r="B335" s="9">
-        <v>3.59E-19</v>
+        <v>3.5899999999999998E-19</v>
       </c>
       <c r="C335" s="9">
-        <v>5.94E-20</v>
+        <v>5.9399999999999998E-20</v>
       </c>
       <c r="D335" s="9"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="8">
-        <v>2170.0</v>
+        <v>2170</v>
       </c>
       <c r="B336" s="9">
-        <v>3.58E-19</v>
+        <v>3.5799999999999999E-19</v>
       </c>
       <c r="C336" s="9">
-        <v>5.89E-20</v>
+        <v>5.8900000000000005E-20</v>
       </c>
       <c r="D336" s="9"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="8">
-        <v>2180.0</v>
+        <v>2180</v>
       </c>
       <c r="B337" s="9">
-        <v>3.46E-19</v>
+        <v>3.4599999999999998E-19</v>
       </c>
       <c r="C337" s="9">
         <v>5.73E-20</v>
       </c>
       <c r="D337" s="9"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="8">
-        <v>2190.0</v>
+        <v>2190</v>
       </c>
       <c r="B338" s="9">
-        <v>3.42E-19</v>
+        <v>3.4199999999999999E-19</v>
       </c>
       <c r="C338" s="9">
-        <v>5.65E-20</v>
+        <v>5.6499999999999998E-20</v>
       </c>
       <c r="D338" s="9"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="8">
-        <v>2200.0</v>
+        <v>2200</v>
       </c>
       <c r="B339" s="9">
-        <v>3.36E-19</v>
+        <v>3.3599999999999998E-19</v>
       </c>
       <c r="C339" s="9">
-        <v>5.56E-20</v>
+        <v>5.5600000000000004E-20</v>
       </c>
       <c r="D339" s="9"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="8">
-        <v>2210.0</v>
+        <v>2210</v>
       </c>
       <c r="B340" s="9">
-        <v>3.63E-19</v>
+        <v>3.6300000000000001E-19</v>
       </c>
       <c r="C340" s="9">
-        <v>5.92E-20</v>
+        <v>5.9200000000000003E-20</v>
       </c>
       <c r="D340" s="9"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="8">
-        <v>2220.0</v>
+        <v>2220</v>
       </c>
       <c r="B341" s="9">
-        <v>3.45E-19</v>
+        <v>3.4499999999999999E-19</v>
       </c>
       <c r="C341" s="9">
-        <v>5.63E-20</v>
+        <v>5.6300000000000003E-20</v>
       </c>
       <c r="D341" s="9"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="8">
-        <v>2230.0</v>
+        <v>2230</v>
       </c>
       <c r="B342" s="9">
         <v>3.48E-19</v>
       </c>
       <c r="C342" s="9">
-        <v>5.68E-20</v>
+        <v>5.6799999999999996E-20</v>
       </c>
       <c r="D342" s="9"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="8">
-        <v>2240.0</v>
+        <v>2240</v>
       </c>
       <c r="B343" s="9">
-        <v>3.46E-19</v>
+        <v>3.4599999999999998E-19</v>
       </c>
       <c r="C343" s="9">
-        <v>5.64E-20</v>
+        <v>5.6399999999999995E-20</v>
       </c>
       <c r="D343" s="9"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="8">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="B344" s="9">
         <v>3.35E-19</v>
       </c>
       <c r="C344" s="9">
-        <v>5.47E-20</v>
+        <v>5.4699999999999998E-20</v>
       </c>
       <c r="D344" s="9"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="8">
-        <v>2260.0</v>
+        <v>2260</v>
       </c>
       <c r="B345" s="9">
         <v>3.35E-19</v>
       </c>
       <c r="C345" s="9">
-        <v>5.47E-20</v>
+        <v>5.4699999999999998E-20</v>
       </c>
       <c r="D345" s="9"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="8">
-        <v>2270.0</v>
+        <v>2270</v>
       </c>
       <c r="B346" s="9">
-        <v>3.52E-19</v>
+        <v>3.5199999999999999E-19</v>
       </c>
       <c r="C346" s="9">
         <v>5.73E-20</v>
       </c>
       <c r="D346" s="9"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="8">
-        <v>2280.0</v>
+        <v>2280</v>
       </c>
       <c r="B347" s="9">
-        <v>3.47E-19</v>
+        <v>3.4700000000000001E-19</v>
       </c>
       <c r="C347" s="9">
-        <v>5.65E-20</v>
+        <v>5.6499999999999998E-20</v>
       </c>
       <c r="D347" s="9"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="8">
-        <v>2290.0</v>
+        <v>2290</v>
       </c>
       <c r="B348" s="9">
-        <v>3.42E-19</v>
+        <v>3.4199999999999999E-19</v>
       </c>
       <c r="C348" s="9">
-        <v>5.56E-20</v>
+        <v>5.5600000000000004E-20</v>
       </c>
       <c r="D348" s="9"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="8">
-        <v>2300.0</v>
+        <v>2300</v>
       </c>
       <c r="B349" s="9">
-        <v>3.34E-19</v>
+        <v>3.3400000000000001E-19</v>
       </c>
       <c r="C349" s="9">
         <v>5.44E-20</v>
       </c>
       <c r="D349" s="9"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="8">
-        <v>2310.0</v>
+        <v>2310</v>
       </c>
       <c r="B350" s="9">
-        <v>3.39E-19</v>
+        <v>3.3899999999999999E-19</v>
       </c>
       <c r="C350" s="9">
-        <v>5.52E-20</v>
+        <v>5.5200000000000003E-20</v>
       </c>
       <c r="D350" s="9"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="8">
-        <v>2320.0</v>
+        <v>2320</v>
       </c>
       <c r="B351" s="9">
-        <v>3.42E-19</v>
+        <v>3.4199999999999999E-19</v>
       </c>
       <c r="C351" s="9">
-        <v>5.56E-20</v>
+        <v>5.5600000000000004E-20</v>
       </c>
       <c r="D351" s="9"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="8">
-        <v>2330.0</v>
+        <v>2330</v>
       </c>
       <c r="B352" s="9">
-        <v>3.23E-19</v>
+        <v>3.2299999999999999E-19</v>
       </c>
       <c r="C352" s="9">
-        <v>5.27E-20</v>
+        <v>5.2699999999999998E-20</v>
       </c>
       <c r="D352" s="9"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="8">
-        <v>2340.0</v>
+        <v>2340</v>
       </c>
       <c r="B353" s="9">
-        <v>3.39E-19</v>
+        <v>3.3899999999999999E-19</v>
       </c>
       <c r="C353" s="9">
-        <v>5.52E-20</v>
+        <v>5.5200000000000003E-20</v>
       </c>
       <c r="D353" s="9"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="8">
-        <v>2350.0</v>
+        <v>2350</v>
       </c>
       <c r="B354" s="9">
-        <v>3.18E-19</v>
+        <v>3.1800000000000001E-19</v>
       </c>
       <c r="C354" s="9">
-        <v>5.2E-20</v>
+        <v>5.1999999999999999E-20</v>
       </c>
       <c r="D354" s="9"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="8">
-        <v>2360.0</v>
+        <v>2360</v>
       </c>
       <c r="B355" s="9">
-        <v>3.26E-19</v>
+        <v>3.2599999999999999E-19</v>
       </c>
       <c r="C355" s="9">
-        <v>5.31E-20</v>
+        <v>5.3099999999999999E-20</v>
       </c>
       <c r="D355" s="9"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="8">
-        <v>2370.0</v>
+        <v>2370</v>
       </c>
       <c r="B356" s="9">
-        <v>3.28E-19</v>
+        <v>3.2800000000000001E-19</v>
       </c>
       <c r="C356" s="9">
-        <v>5.34E-20</v>
+        <v>5.3399999999999997E-20</v>
       </c>
       <c r="D356" s="9"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="8">
-        <v>2380.0</v>
+        <v>2380</v>
       </c>
       <c r="B357" s="9">
         <v>3.35E-19</v>
       </c>
       <c r="C357" s="9">
-        <v>5.45E-20</v>
+        <v>5.4500000000000004E-20</v>
       </c>
       <c r="D357" s="9"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="8">
-        <v>2390.0</v>
+        <v>2390</v>
       </c>
       <c r="B358" s="9">
-        <v>3.24E-19</v>
+        <v>3.2400000000000002E-19</v>
       </c>
       <c r="C358" s="9">
-        <v>5.27E-20</v>
+        <v>5.2699999999999998E-20</v>
       </c>
       <c r="D358" s="9"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="8">
-        <v>2400.0</v>
+        <v>2400</v>
       </c>
       <c r="B359" s="9">
-        <v>3.2E-19</v>
+        <v>3.1999999999999998E-19</v>
       </c>
       <c r="C359" s="9">
-        <v>5.21E-20</v>
+        <v>5.2100000000000002E-20</v>
       </c>
       <c r="D359" s="9"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="8">
-        <v>2410.0</v>
+        <v>2410</v>
       </c>
       <c r="B360" s="9">
         <v>3.32E-19</v>
       </c>
       <c r="C360" s="9">
-        <v>5.4E-20</v>
+        <v>5.3999999999999999E-20</v>
       </c>
       <c r="D360" s="9"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="8">
-        <v>2420.0</v>
+        <v>2420</v>
       </c>
       <c r="B361" s="9">
-        <v>3.17E-19</v>
+        <v>3.1699999999999998E-19</v>
       </c>
       <c r="C361" s="9">
-        <v>5.16E-20</v>
+        <v>5.1599999999999998E-20</v>
       </c>
       <c r="D361" s="9"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="8">
-        <v>2430.0</v>
+        <v>2430</v>
       </c>
       <c r="B362" s="9">
-        <v>3.24E-19</v>
+        <v>3.2400000000000002E-19</v>
       </c>
       <c r="C362" s="9">
-        <v>5.27E-20</v>
+        <v>5.2699999999999998E-20</v>
       </c>
       <c r="D362" s="9"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="8">
-        <v>2440.0</v>
+        <v>2440</v>
       </c>
       <c r="B363" s="9">
-        <v>3.37E-19</v>
+        <v>3.3700000000000002E-19</v>
       </c>
       <c r="C363" s="9">
-        <v>5.48E-20</v>
+        <v>5.4800000000000002E-20</v>
       </c>
       <c r="D363" s="9"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="8">
-        <v>2450.0</v>
+        <v>2450</v>
       </c>
       <c r="B364" s="9">
-        <v>3.18E-19</v>
+        <v>3.1800000000000001E-19</v>
       </c>
       <c r="C364" s="9">
-        <v>5.17E-20</v>
+        <v>5.1700000000000001E-20</v>
       </c>
       <c r="D364" s="9"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="8">
-        <v>2460.0</v>
+        <v>2460</v>
       </c>
       <c r="B365" s="9">
-        <v>3.23E-19</v>
+        <v>3.2299999999999999E-19</v>
       </c>
       <c r="C365" s="9">
         <v>5.24E-20</v>
       </c>
       <c r="D365" s="9"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="8">
-        <v>2470.0</v>
+        <v>2470</v>
       </c>
       <c r="B366" s="9">
-        <v>3.21E-19</v>
+        <v>3.2100000000000002E-19</v>
       </c>
       <c r="C366" s="9">
         <v>5.22E-20</v>
       </c>
       <c r="D366" s="9"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="8">
-        <v>2480.0</v>
+        <v>2480</v>
       </c>
       <c r="B367" s="9">
-        <v>3.21E-19</v>
+        <v>3.2100000000000002E-19</v>
       </c>
       <c r="C367" s="9">
-        <v>5.21E-20</v>
+        <v>5.2100000000000002E-20</v>
       </c>
       <c r="D367" s="9"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="8">
-        <v>2490.0</v>
+        <v>2490</v>
       </c>
       <c r="B368" s="9">
         <v>3.03E-19</v>
       </c>
       <c r="C368" s="9">
-        <v>4.94E-20</v>
+        <v>4.9400000000000003E-20</v>
       </c>
       <c r="D368" s="9"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="8">
-        <v>2500.0</v>
+        <v>2500</v>
       </c>
       <c r="B369" s="9">
-        <v>3.16E-19</v>
+        <v>3.1599999999999999E-19</v>
       </c>
       <c r="C369" s="9">
-        <v>5.14E-20</v>
+        <v>5.1399999999999997E-20</v>
       </c>
       <c r="D369" s="9"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="8">
-        <v>2510.0</v>
+        <v>2510</v>
       </c>
       <c r="B370" s="9">
-        <v>3.18E-19</v>
+        <v>3.1800000000000001E-19</v>
       </c>
       <c r="C370" s="9">
-        <v>5.16E-20</v>
+        <v>5.1599999999999998E-20</v>
       </c>
       <c r="D370" s="9"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="8">
-        <v>2520.0</v>
+        <v>2520</v>
       </c>
       <c r="B371" s="9">
-        <v>3.28E-19</v>
+        <v>3.2800000000000001E-19</v>
       </c>
       <c r="C371" s="9">
-        <v>5.34E-20</v>
+        <v>5.3399999999999997E-20</v>
       </c>
       <c r="D371" s="9"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="8">
-        <v>2530.0</v>
+        <v>2530</v>
       </c>
       <c r="B372" s="9">
         <v>3.19E-19</v>
       </c>
       <c r="C372" s="9">
-        <v>5.19E-20</v>
+        <v>5.1900000000000002E-20</v>
       </c>
       <c r="D372" s="9"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="8">
-        <v>2540.0</v>
+        <v>2540</v>
       </c>
       <c r="B373" s="9">
-        <v>3.16E-19</v>
+        <v>3.1599999999999999E-19</v>
       </c>
       <c r="C373" s="9">
         <v>5.13E-20</v>
       </c>
       <c r="D373" s="9"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="8">
-        <v>2550.0</v>
+        <v>2550</v>
       </c>
       <c r="B374" s="9">
         <v>3.09E-19</v>
       </c>
       <c r="C374" s="9">
-        <v>5.02E-20</v>
+        <v>5.0199999999999999E-20</v>
       </c>
       <c r="D374" s="9"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="8">
-        <v>2560.0</v>
+        <v>2560</v>
       </c>
       <c r="B375" s="9">
         <v>3.25E-19</v>
       </c>
       <c r="C375" s="9">
-        <v>5.27E-20</v>
+        <v>5.2699999999999998E-20</v>
       </c>
       <c r="D375" s="9"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="8">
-        <v>2570.0</v>
+        <v>2570</v>
       </c>
       <c r="B376" s="9">
-        <v>3.02E-19</v>
+        <v>3.0200000000000001E-19</v>
       </c>
       <c r="C376" s="9">
-        <v>4.91E-20</v>
+        <v>4.9099999999999999E-20</v>
       </c>
       <c r="D376" s="9"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="8">
-        <v>2580.0</v>
+        <v>2580</v>
       </c>
       <c r="B377" s="9">
         <v>3.19E-19</v>
       </c>
       <c r="C377" s="9">
-        <v>5.18E-20</v>
+        <v>5.1799999999999998E-20</v>
       </c>
       <c r="D377" s="9"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="8">
-        <v>2590.0</v>
+        <v>2590</v>
       </c>
       <c r="B378" s="9">
-        <v>3.12E-19</v>
+        <v>3.1200000000000001E-19</v>
       </c>
       <c r="C378" s="9">
-        <v>5.07E-20</v>
+        <v>5.0699999999999998E-20</v>
       </c>
       <c r="D378" s="9"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A379" s="8">
-        <v>2600.0</v>
+        <v>2600</v>
       </c>
       <c r="B379" s="9">
-        <v>3.1E-19</v>
+        <v>3.0999999999999999E-19</v>
       </c>
       <c r="C379" s="9">
         <v>5.04E-20</v>
       </c>
       <c r="D379" s="9"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A380" s="8">
-        <v>2610.0</v>
+        <v>2610</v>
       </c>
       <c r="B380" s="9">
-        <v>3.16E-19</v>
+        <v>3.1599999999999999E-19</v>
       </c>
       <c r="C380" s="9">
-        <v>5.12E-20</v>
+        <v>5.1200000000000002E-20</v>
       </c>
       <c r="D380" s="9"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A381" s="8">
-        <v>2620.0</v>
+        <v>2620</v>
       </c>
       <c r="B381" s="9">
-        <v>3.07E-19</v>
+        <v>3.0699999999999998E-19</v>
       </c>
       <c r="C381" s="9">
-        <v>4.99E-20</v>
+        <v>4.9900000000000001E-20</v>
       </c>
       <c r="D381" s="9"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="8">
-        <v>2630.0</v>
+        <v>2630</v>
       </c>
       <c r="B382" s="9">
         <v>3.03E-19</v>
       </c>
       <c r="C382" s="9">
-        <v>4.92E-20</v>
+        <v>4.9200000000000002E-20</v>
       </c>
       <c r="D382" s="9"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" s="8">
-        <v>2640.0</v>
+        <v>2640</v>
       </c>
       <c r="B383" s="9">
         <v>3.19E-19</v>
       </c>
       <c r="C383" s="9">
-        <v>5.17E-20</v>
+        <v>5.1700000000000001E-20</v>
       </c>
       <c r="D383" s="9"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="8">
-        <v>2650.0</v>
+        <v>2650</v>
       </c>
       <c r="B384" s="9">
-        <v>3.07E-19</v>
+        <v>3.0699999999999998E-19</v>
       </c>
       <c r="C384" s="9">
-        <v>4.99E-20</v>
+        <v>4.9900000000000001E-20</v>
       </c>
       <c r="D384" s="9"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="8">
-        <v>2660.0</v>
+        <v>2660</v>
       </c>
       <c r="B385" s="9">
         <v>3.03E-19</v>
       </c>
       <c r="C385" s="9">
-        <v>4.91E-20</v>
+        <v>4.9099999999999999E-20</v>
       </c>
       <c r="D385" s="9"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="8">
-        <v>2670.0</v>
+        <v>2670</v>
       </c>
       <c r="B386" s="9">
-        <v>3.12E-19</v>
+        <v>3.1200000000000001E-19</v>
       </c>
       <c r="C386" s="9">
-        <v>5.06E-20</v>
+        <v>5.0600000000000001E-20</v>
       </c>
       <c r="D386" s="9"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="8">
-        <v>2680.0</v>
+        <v>2680</v>
       </c>
       <c r="B387" s="9">
-        <v>3.15E-19</v>
+        <v>3.1500000000000001E-19</v>
       </c>
       <c r="C387" s="9">
-        <v>5.1E-20</v>
+        <v>5.1000000000000002E-20</v>
       </c>
       <c r="D387" s="9"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="8">
-        <v>2690.0</v>
+        <v>2690</v>
       </c>
       <c r="B388" s="9">
         <v>3.09E-19</v>
       </c>
       <c r="C388" s="9">
-        <v>5.03E-20</v>
+        <v>5.0300000000000003E-20</v>
       </c>
       <c r="D388" s="9"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="8">
-        <v>2700.0</v>
+        <v>2700</v>
       </c>
       <c r="B389" s="9">
-        <v>3.02E-19</v>
+        <v>3.0200000000000001E-19</v>
       </c>
       <c r="C389" s="9">
-        <v>4.96E-20</v>
+        <v>4.9599999999999998E-20</v>
       </c>
       <c r="D389" s="9"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="8">
-        <v>2710.0</v>
+        <v>2710</v>
       </c>
       <c r="B390" s="9">
-        <v>3.1E-19</v>
+        <v>3.0999999999999999E-19</v>
       </c>
       <c r="C390" s="9">
-        <v>5.1E-20</v>
+        <v>5.1000000000000002E-20</v>
       </c>
       <c r="D390" s="9"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="8">
-        <v>2720.0</v>
+        <v>2720</v>
       </c>
       <c r="B391" s="9">
-        <v>3.04E-19</v>
+        <v>3.0399999999999998E-19</v>
       </c>
       <c r="C391" s="9">
-        <v>4.99E-20</v>
+        <v>4.9900000000000001E-20</v>
       </c>
       <c r="D391" s="9"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A392" s="8">
-        <v>2730.0</v>
+        <v>2730</v>
       </c>
       <c r="B392" s="9">
-        <v>2.97E-19</v>
+        <v>2.9699999999999999E-19</v>
       </c>
       <c r="C392" s="9">
-        <v>4.9E-20</v>
+        <v>4.9000000000000002E-20</v>
       </c>
       <c r="D392" s="9"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A393" s="8">
-        <v>2740.0</v>
+        <v>2740</v>
       </c>
       <c r="B393" s="9">
         <v>3.06E-19</v>
       </c>
       <c r="C393" s="9">
-        <v>5.02E-20</v>
+        <v>5.0199999999999999E-20</v>
       </c>
       <c r="D393" s="9"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A394" s="8">
-        <v>2750.0</v>
+        <v>2750</v>
       </c>
       <c r="B394" s="9">
-        <v>3.2E-19</v>
+        <v>3.1999999999999998E-19</v>
       </c>
       <c r="C394" s="9">
-        <v>5.26E-20</v>
+        <v>5.2600000000000001E-20</v>
       </c>
       <c r="D394" s="9"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="8">
-        <v>2760.0</v>
+        <v>2760</v>
       </c>
       <c r="B395" s="9">
-        <v>3.15E-19</v>
+        <v>3.1500000000000001E-19</v>
       </c>
       <c r="C395" s="9">
-        <v>5.16E-20</v>
+        <v>5.1599999999999998E-20</v>
       </c>
       <c r="D395" s="9"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A396" s="8">
-        <v>2770.0</v>
+        <v>2770</v>
       </c>
       <c r="B396" s="9">
-        <v>3.15E-19</v>
+        <v>3.1500000000000001E-19</v>
       </c>
       <c r="C396" s="9">
-        <v>5.17E-20</v>
+        <v>5.1700000000000001E-20</v>
       </c>
       <c r="D396" s="9"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A397" s="8">
-        <v>2780.0</v>
+        <v>2780</v>
       </c>
       <c r="B397" s="9">
-        <v>3.02E-19</v>
+        <v>3.0200000000000001E-19</v>
       </c>
       <c r="C397" s="9">
-        <v>4.97E-20</v>
+        <v>4.9700000000000001E-20</v>
       </c>
       <c r="D397" s="9"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="8">
-        <v>2790.0</v>
+        <v>2790</v>
       </c>
       <c r="B398" s="9">
-        <v>3.14E-19</v>
+        <v>3.1400000000000002E-19</v>
       </c>
       <c r="C398" s="9">
         <v>5.13E-20</v>
       </c>
       <c r="D398" s="9"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="8">
-        <v>2800.0</v>
+        <v>2800</v>
       </c>
       <c r="B399" s="9">
-        <v>3.08E-19</v>
+        <v>3.0800000000000002E-19</v>
       </c>
       <c r="C399" s="9">
         <v>5.04E-20</v>
       </c>
       <c r="D399" s="9"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="8">
-        <v>2810.0</v>
+        <v>2810</v>
       </c>
       <c r="B400" s="9">
-        <v>2.98E-19</v>
+        <v>2.9800000000000002E-19</v>
       </c>
       <c r="C400" s="9">
-        <v>4.89E-20</v>
+        <v>4.8899999999999998E-20</v>
       </c>
       <c r="D400" s="9"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="8">
-        <v>2820.0</v>
+        <v>2820</v>
       </c>
       <c r="B401" s="9">
-        <v>3.14E-19</v>
+        <v>3.1400000000000002E-19</v>
       </c>
       <c r="C401" s="9">
         <v>5.15E-20</v>
       </c>
       <c r="D401" s="9"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A402" s="8">
-        <v>2830.0</v>
+        <v>2830</v>
       </c>
       <c r="B402" s="9">
-        <v>3.05E-19</v>
+        <v>3.0500000000000001E-19</v>
       </c>
       <c r="C402" s="9">
-        <v>4.98E-20</v>
+        <v>4.9799999999999998E-20</v>
       </c>
       <c r="D402" s="9"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="8">
-        <v>2840.0</v>
+        <v>2840</v>
       </c>
       <c r="B403" s="9">
-        <v>2.97E-19</v>
+        <v>2.9699999999999999E-19</v>
       </c>
       <c r="C403" s="9">
-        <v>4.89E-20</v>
+        <v>4.8899999999999998E-20</v>
       </c>
       <c r="D403" s="9"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="8">
-        <v>2850.0</v>
+        <v>2850</v>
       </c>
       <c r="B404" s="9">
         <v>3.06E-19</v>
       </c>
       <c r="C404" s="9">
-        <v>5.02E-20</v>
+        <v>5.0199999999999999E-20</v>
       </c>
       <c r="D404" s="9"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A405" s="8">
-        <v>2860.0</v>
+        <v>2860</v>
       </c>
       <c r="B405" s="9">
-        <v>3.08E-19</v>
+        <v>3.0800000000000002E-19</v>
       </c>
       <c r="C405" s="9">
-        <v>5.05E-20</v>
+        <v>5.0499999999999997E-20</v>
       </c>
       <c r="D405" s="9"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="8">
-        <v>2870.0</v>
+        <v>2870</v>
       </c>
       <c r="B406" s="9">
-        <v>2.94E-19</v>
+        <v>2.9399999999999999E-19</v>
       </c>
       <c r="C406" s="9">
-        <v>4.81E-20</v>
+        <v>4.8100000000000002E-20</v>
       </c>
       <c r="D406" s="9"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A407" s="8">
-        <v>2880.0</v>
+        <v>2880</v>
       </c>
       <c r="B407" s="9">
-        <v>3.05E-19</v>
+        <v>3.0500000000000001E-19</v>
       </c>
       <c r="C407" s="9">
-        <v>4.99E-20</v>
+        <v>4.9900000000000001E-20</v>
       </c>
       <c r="D407" s="9"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="8">
-        <v>2890.0</v>
+        <v>2890</v>
       </c>
       <c r="B408" s="9">
-        <v>3.05E-19</v>
+        <v>3.0500000000000001E-19</v>
       </c>
       <c r="C408" s="9">
-        <v>4.99E-20</v>
+        <v>4.9900000000000001E-20</v>
       </c>
       <c r="D408" s="9"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="8">
-        <v>2900.0</v>
+        <v>2900</v>
       </c>
       <c r="B409" s="9">
-        <v>2.92E-19</v>
+        <v>2.9200000000000002E-19</v>
       </c>
       <c r="C409" s="9">
-        <v>4.8E-20</v>
+        <v>4.7999999999999999E-20</v>
       </c>
       <c r="D409" s="9"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="8">
-        <v>2910.0</v>
+        <v>2910</v>
       </c>
       <c r="B410" s="9">
-        <v>2.97E-19</v>
+        <v>2.9699999999999999E-19</v>
       </c>
       <c r="C410" s="9">
-        <v>4.88E-20</v>
+        <v>4.8800000000000001E-20</v>
       </c>
       <c r="D410" s="9"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="8">
-        <v>2920.0</v>
+        <v>2920</v>
       </c>
       <c r="B411" s="9">
-        <v>3.18E-19</v>
+        <v>3.1800000000000001E-19</v>
       </c>
       <c r="C411" s="9">
-        <v>5.2E-20</v>
+        <v>5.1999999999999999E-20</v>
       </c>
       <c r="D411" s="9"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="8">
-        <v>2930.0</v>
+        <v>2930</v>
       </c>
       <c r="B412" s="9">
-        <v>2.99E-19</v>
+        <v>2.9900000000000001E-19</v>
       </c>
       <c r="C412" s="9">
-        <v>4.91E-20</v>
+        <v>4.9099999999999999E-20</v>
       </c>
       <c r="D412" s="9"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="8">
-        <v>2940.0</v>
+        <v>2940</v>
       </c>
       <c r="B413" s="9">
-        <v>2.89E-19</v>
+        <v>2.8900000000000001E-19</v>
       </c>
       <c r="C413" s="9">
-        <v>4.74E-20</v>
+        <v>4.7400000000000003E-20</v>
       </c>
       <c r="D413" s="9"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="8">
-        <v>2950.0</v>
+        <v>2950</v>
       </c>
       <c r="B414" s="9">
         <v>2.9E-19</v>
       </c>
       <c r="C414" s="9">
-        <v>4.76E-20</v>
+        <v>4.7599999999999997E-20</v>
       </c>
       <c r="D414" s="9"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="8">
-        <v>2960.0</v>
+        <v>2960</v>
       </c>
       <c r="B415" s="9">
-        <v>3.04E-19</v>
+        <v>3.0399999999999998E-19</v>
       </c>
       <c r="C415" s="9">
-        <v>4.97E-20</v>
+        <v>4.9700000000000001E-20</v>
       </c>
       <c r="D415" s="9"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="8">
-        <v>2970.0</v>
+        <v>2970</v>
       </c>
       <c r="B416" s="9">
-        <v>3.16E-19</v>
+        <v>3.1599999999999999E-19</v>
       </c>
       <c r="C416" s="9">
-        <v>5.16E-20</v>
+        <v>5.1599999999999998E-20</v>
       </c>
       <c r="D416" s="9"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="8">
-        <v>2980.0</v>
+        <v>2980</v>
       </c>
       <c r="B417" s="9">
-        <v>2.98E-19</v>
+        <v>2.9800000000000002E-19</v>
       </c>
       <c r="C417" s="9">
-        <v>4.88E-20</v>
+        <v>4.8800000000000001E-20</v>
       </c>
       <c r="D417" s="9"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="8">
-        <v>2990.0</v>
+        <v>2990</v>
       </c>
       <c r="B418" s="9">
         <v>2.9E-19</v>
       </c>
       <c r="C418" s="9">
-        <v>4.77E-20</v>
+        <v>4.7700000000000001E-20</v>
       </c>
       <c r="D418" s="9"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="8">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="B419" s="9">
-        <v>3.08E-19</v>
+        <v>3.0800000000000002E-19</v>
       </c>
       <c r="C419" s="9">
         <v>5.04E-20</v>
       </c>
       <c r="D419" s="9"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="8">
-        <v>3010.0</v>
+        <v>3010</v>
       </c>
       <c r="B420" s="9">
-        <v>3.02E-19</v>
+        <v>3.0200000000000001E-19</v>
       </c>
       <c r="C420" s="9">
-        <v>4.94E-20</v>
+        <v>4.9400000000000003E-20</v>
       </c>
       <c r="D420" s="9"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="8">
-        <v>3020.0</v>
+        <v>3020</v>
       </c>
       <c r="B421" s="9">
         <v>2.96E-19</v>
@@ -10001,483 +10049,483 @@
       </c>
       <c r="D421" s="9"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A422" s="8">
-        <v>3030.0</v>
+        <v>3030</v>
       </c>
       <c r="B422" s="9">
         <v>3.09E-19</v>
       </c>
       <c r="C422" s="9">
-        <v>5.05E-20</v>
+        <v>5.0499999999999997E-20</v>
       </c>
       <c r="D422" s="9"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A423" s="8">
-        <v>3040.0</v>
+        <v>3040</v>
       </c>
       <c r="B423" s="9">
-        <v>3.04E-19</v>
+        <v>3.0399999999999998E-19</v>
       </c>
       <c r="C423" s="9">
-        <v>4.97E-20</v>
+        <v>4.9700000000000001E-20</v>
       </c>
       <c r="D423" s="9"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A424" s="8">
-        <v>3050.0</v>
+        <v>3050</v>
       </c>
       <c r="B424" s="9">
         <v>2.93E-19</v>
       </c>
       <c r="C424" s="9">
-        <v>4.81E-20</v>
+        <v>4.8100000000000002E-20</v>
       </c>
       <c r="D424" s="9"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A425" s="8">
-        <v>3060.0</v>
+        <v>3060</v>
       </c>
       <c r="B425" s="9">
-        <v>3.1E-19</v>
+        <v>3.0999999999999999E-19</v>
       </c>
       <c r="C425" s="9">
-        <v>5.06E-20</v>
+        <v>5.0600000000000001E-20</v>
       </c>
       <c r="D425" s="9"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A426" s="8">
-        <v>3070.0</v>
+        <v>3070</v>
       </c>
       <c r="B426" s="9">
-        <v>3.0E-19</v>
+        <v>2.9999999999999999E-19</v>
       </c>
       <c r="C426" s="9">
-        <v>4.91E-20</v>
+        <v>4.9099999999999999E-20</v>
       </c>
       <c r="D426" s="9"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A427" s="8">
-        <v>3080.0</v>
+        <v>3080</v>
       </c>
       <c r="B427" s="9">
         <v>3.03E-19</v>
       </c>
       <c r="C427" s="9">
-        <v>4.96E-20</v>
+        <v>4.9599999999999998E-20</v>
       </c>
       <c r="D427" s="9"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A428" s="8">
-        <v>3090.0</v>
+        <v>3090</v>
       </c>
       <c r="B428" s="9">
-        <v>3.08E-19</v>
+        <v>3.0800000000000002E-19</v>
       </c>
       <c r="C428" s="9">
-        <v>5.03E-20</v>
+        <v>5.0300000000000003E-20</v>
       </c>
       <c r="D428" s="9"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A429" s="8">
-        <v>3100.0</v>
+        <v>3100</v>
       </c>
       <c r="B429" s="9">
         <v>3.03E-19</v>
       </c>
       <c r="C429" s="9">
-        <v>4.97E-20</v>
+        <v>4.9700000000000001E-20</v>
       </c>
       <c r="D429" s="9"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
     </row>
-    <row r="433">
+    <row r="433" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
     </row>
-    <row r="434">
+    <row r="434" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
     </row>
-    <row r="435">
+    <row r="435" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
     </row>
-    <row r="436">
+    <row r="436" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
     </row>
-    <row r="437">
+    <row r="437" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
     </row>
-    <row r="438">
+    <row r="438" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
     </row>
-    <row r="439">
+    <row r="439" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
     </row>
-    <row r="440">
+    <row r="440" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
     </row>
-    <row r="441">
+    <row r="441" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
     </row>
-    <row r="442">
+    <row r="442" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
     </row>
-    <row r="443">
+    <row r="443" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
     </row>
-    <row r="444">
+    <row r="444" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
     </row>
-    <row r="445">
+    <row r="445" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
     </row>
-    <row r="446">
+    <row r="446" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
     </row>
-    <row r="447">
+    <row r="447" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
     </row>
-    <row r="448">
+    <row r="448" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
     </row>
-    <row r="449">
+    <row r="449" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
     </row>
-    <row r="450">
+    <row r="450" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
     </row>
-    <row r="451">
+    <row r="451" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
     </row>
-    <row r="452">
+    <row r="452" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
     </row>
-    <row r="453">
+    <row r="453" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
     </row>
-    <row r="454">
+    <row r="454" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
     </row>
-    <row r="455">
+    <row r="455" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
     </row>
-    <row r="456">
+    <row r="456" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
     </row>
-    <row r="457">
+    <row r="457" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
     </row>
-    <row r="458">
+    <row r="458" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
     </row>
-    <row r="459">
+    <row r="459" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
     </row>
-    <row r="460">
+    <row r="460" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
     </row>
-    <row r="461">
+    <row r="461" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
     </row>
-    <row r="462">
+    <row r="462" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
     </row>
-    <row r="463">
+    <row r="463" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
     </row>
-    <row r="464">
+    <row r="464" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
     </row>
-    <row r="465">
+    <row r="465" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
     </row>
-    <row r="466">
+    <row r="466" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
     </row>
-    <row r="467">
+    <row r="467" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
     </row>
-    <row r="468">
+    <row r="468" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
     </row>
-    <row r="469">
+    <row r="469" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
     </row>
-    <row r="470">
+    <row r="470" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
     </row>
-    <row r="471">
+    <row r="471" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
     </row>
-    <row r="472">
+    <row r="472" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
     </row>
-    <row r="473">
+    <row r="473" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
     </row>
-    <row r="474">
+    <row r="474" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
     </row>
-    <row r="475">
+    <row r="475" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
     </row>
-    <row r="476">
+    <row r="476" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
     </row>
-    <row r="477">
+    <row r="477" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
     </row>
-    <row r="478">
+    <row r="478" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
     </row>
-    <row r="479">
+    <row r="479" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
     </row>
-    <row r="480">
+    <row r="480" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
     </row>
-    <row r="481">
+    <row r="481" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
     </row>
-    <row r="482">
+    <row r="482" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
     </row>
-    <row r="483">
+    <row r="483" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
     </row>
-    <row r="484">
+    <row r="484" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
     </row>
-    <row r="485">
+    <row r="485" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
     </row>
-    <row r="486">
+    <row r="486" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
     </row>
-    <row r="487">
+    <row r="487" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
     </row>
-    <row r="488">
+    <row r="488" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
     </row>
-    <row r="489">
+    <row r="489" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
     </row>
-    <row r="490">
+    <row r="490" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
     </row>
-    <row r="491">
+    <row r="491" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
     </row>
-    <row r="492">
+    <row r="492" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
     </row>
-    <row r="493">
+    <row r="493" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
     </row>
-    <row r="494">
+    <row r="494" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
     </row>
-    <row r="495">
+    <row r="495" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
     </row>
-    <row r="496">
+    <row r="496" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
     </row>
-    <row r="497">
+    <row r="497" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
     </row>
-    <row r="498">
+    <row r="498" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
     </row>
-    <row r="499">
+    <row r="499" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
     </row>
-    <row r="500">
+    <row r="500" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
     </row>
-    <row r="501">
+    <row r="501" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
     </row>
-    <row r="502">
+    <row r="502" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
     </row>
-    <row r="503">
+    <row r="503" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
     </row>
-    <row r="504">
+    <row r="504" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
     </row>
-    <row r="505">
+    <row r="505" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
     </row>
-    <row r="506">
+    <row r="506" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
     </row>
-    <row r="507">
+    <row r="507" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
     </row>
-    <row r="508">
+    <row r="508" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
     </row>
-    <row r="509">
+    <row r="509" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
     </row>
-    <row r="510">
+    <row r="510" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
     </row>
-    <row r="511">
+    <row r="511" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
     </row>
-    <row r="512">
+    <row r="512" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
     </row>
-    <row r="513">
+    <row r="513" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
     </row>
-    <row r="514">
+    <row r="514" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
     </row>
-    <row r="515">
+    <row r="515" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
     </row>
-    <row r="516">
+    <row r="516" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
     </row>
-    <row r="517">
+    <row r="517" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
     </row>
-    <row r="518">
+    <row r="518" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
     </row>
-    <row r="519">
+    <row r="519" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
     </row>
-    <row r="520">
+    <row r="520" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
     </row>
-    <row r="521">
+    <row r="521" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
     </row>
-    <row r="522">
+    <row r="522" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
     </row>
-    <row r="523">
+    <row r="523" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
     </row>
-    <row r="524">
+    <row r="524" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>